--- a/doc/2023年下期/【修正版】2023年上期/【画面設計】週間タレント出演画面（WeekTalentSh.xlsx
+++ b/doc/2023年下期/【修正版】2023年上期/【画面設計】週間タレント出演画面（WeekTalentSh.xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="2+VDG70nRgkihSGa2h4FddcceJ/fyncdLamNGNizRnQ="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="t3TD18ley+R1G0FG3FPRFISbAGeF6ErD3yYEcx4Jrdk="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="186">
   <si>
     <t>Java課題(2023上期）</t>
   </si>
@@ -75,7 +75,17 @@
     <t>出演番組（直近）をページングリンクボタンへ変更</t>
   </si>
   <si>
-    <t>対象年月・週を追加</t>
+    <t>年月・週を追加</t>
+  </si>
+  <si>
+    <t>・TOPリンクボタンを追加
+・画面画像の差し替え
+・サイトバーの追加（他の画面でも共通）
+・年月・週のリンクを削除
+・対象の名称を削除
+・3.【前の画面より受け取ったパラメータ】へモードを追加
+・ページングの最初と最後を追加
+・バリデーションチェックの追加と修正</t>
   </si>
   <si>
     <t>1.【画面イメージ】</t>
@@ -90,7 +100,7 @@
         <color theme="1"/>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve">・オンエア管理テーブルを元に、対象年月と対象週とタレントで検索を行い、検索結果を表示する。（初期表示時は検索条件部と検索ボタンのみ表示）
+      <t xml:space="preserve">・オンエア管理テーブルを元に、年月と週とタレントで検索を行い、検索結果を表示する。（初期表示時は検索条件部と検索ボタンのみ表示）
 ・タレント名のリンクボタンをクリック時に、タレントIDをキーとして、次画面「タレント詳細画面」へ遷移する。
 </t>
     </r>
@@ -100,8 +110,7 @@
         <color rgb="FFFF0000"/>
         <sz val="10.0"/>
       </rPr>
-      <t>・出演番組（直近）のリンクボタンをクリック時に、番組ID、オンエア日（直近）、対象年月、対象週をキーとして、次画面「番組詳細画面」へ遷移する。
-・対象年月・週のリンクボタンをクリック時に、次画面「年月週管理登録画面（更新モード）」へ遷移する。</t>
+      <t>・出演番組（直近）のリンクボタンをクリック時に、番組ID、オンエア日時（直近）、年月、週をキーとして、次画面「番組詳細画面」へ遷移する。</t>
     </r>
   </si>
   <si>
@@ -138,6 +147,9 @@
     <t>３０桁</t>
   </si>
   <si>
+    <t>モード</t>
+  </si>
+  <si>
     <t>イベント名</t>
   </si>
   <si>
@@ -147,28 +159,63 @@
     <t>初期表示時</t>
   </si>
   <si>
-    <t>検索条件部と検索ボタンのみ表示する。
-パラメータが存在した場合は、検索処理を実施する。</t>
+    <r>
+      <rPr>
+        <rFont val="游ゴシック"/>
+        <color rgb="FFFF0000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>前画面からパラメータが設定されていた場合に各パラメータに対して、バリデーションチェックを行い、</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="游ゴシック"/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>検索条件部と検索ボタンのみ表示する。</t>
+    </r>
   </si>
   <si>
     <t>検索ボタン押下時</t>
   </si>
   <si>
-    <t>検索条件の各値を取得し、パラメータとして、API「週間タレント別情報」を呼び出す。
+    <r>
+      <rPr>
+        <rFont val="游ゴシック"/>
+        <color rgb="FFFF0000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>検索条件の各値を取得し、各パラメータに対して、バリデーションチェックを行い、API「週間タレント別情報」を呼び出す。</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="游ゴシック"/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">
 APIからの戻り件数0件の場合は、ヘッダーのみ表示する。
 1件以上の場合は、ヘッダーとデータを表示する。</t>
+    </r>
   </si>
   <si>
     <t>タレント名クリック時</t>
   </si>
   <si>
-    <t>リンクボタンをクリック時に、タレントID、対象年月、対象週をキーとして、次画面「タレント詳細画面（TalentDetail.vue)」へ遷移する。</t>
+    <t>リンクボタンをクリック時に、タレントID、年月、週をキーとして、次画面「タレント詳細画面（TalentDetail.vue)」へ遷移する。</t>
   </si>
   <si>
     <t>出演番組（直近）クリック時</t>
   </si>
   <si>
-    <t>リンクボタンをクリック時に、番組ID、オンエア日（直近）、対象年月、対象週をキーとして、次画面「番組詳細画面」へ遷移する。</t>
+    <t>リンクボタンをクリック時に、番組ID、オンエア日時（直近）、年月、週をキーとして、次画面「番組詳細画面」へ遷移する。</t>
+  </si>
+  <si>
+    <t>最初リンククリック時</t>
+  </si>
+  <si>
+    <t>ページングの先頭に移動する。</t>
   </si>
   <si>
     <t>ページングリンククリック時</t>
@@ -177,10 +224,16 @@
     <t>ページングリンククリック時に、次の10件、前の10件へ遷移できるようにする。</t>
   </si>
   <si>
-    <t>対象年月・週クリック時</t>
+    <t>最後リンククリック時</t>
   </si>
   <si>
-    <t>リンクボタンをクリック時に、次画面「年月週管理登録画面（更新モード）」へ遷移する。</t>
+    <t>ページングの最後に移動する。</t>
+  </si>
+  <si>
+    <t>TOPリンククリック時</t>
+  </si>
+  <si>
+    <t>リンクボタンをクリック時に、画面「メインメニュー画面」へ遷移する。</t>
   </si>
   <si>
     <t>4.【フォーム情報】</t>
@@ -213,22 +266,61 @@
     <t>lable</t>
   </si>
   <si>
-    <t xml:space="preserve">検索ボタンを押下時に、
-以下のバリデーションチェックでエラーの場合、表示
-① 対象年月、対象週が必須で入力されていること。        
-②対象年月がYYYY/MM形式であること。        
-③対象週が数値かつ、1～5の数値のいずれかであること。        
-④タレントが30桁以内であること。        
+    <r>
+      <rPr>
+        <rFont val="游ゴシック"/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>初期表示に、検索ボタンを押下時に、
+以下のバリデーションチェックでエラーの場合、エラーメッセージを表示する。</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="游ゴシック"/>
+        <color rgb="FFFF0000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">
+・年月週が必須で入力されていること。
+・年月がYYYYMM形式であること。
+・年月がYYYY/MM/01で有効な日付であること。
+・週が数値であること。
+・週が1～5の数値のいずれかであること。
+・タレント名が設定されている場合は、30桁以内であること。</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="游ゴシック"/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">  
 </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="游ゴシック"/>
+        <color rgb="FFFF0000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">　→ビジネスルールに詳しく記載。</t>
+    </r>
   </si>
   <si>
-    <t>（検索条件）</t>
+    <t>（ヘッダー項目）</t>
   </si>
   <si>
     <t xml:space="preserve">部品　</t>
   </si>
   <si>
-    <t>対象年月</t>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>linkbutton</t>
+  </si>
+  <si>
+    <t>（検索条件）</t>
   </si>
   <si>
     <t>ー</t>
@@ -253,9 +345,6 @@
   </si>
   <si>
     <t>検索先</t>
-  </si>
-  <si>
-    <t>対象週</t>
   </si>
   <si>
     <t>1～5のいずれかを入力する。</t>
@@ -295,15 +384,10 @@
     <t>検索条件の内容で検索処理を行い、検索結果にデータを表示する。</t>
   </si>
   <si>
-    <t>対象年月・週</t>
+    <t>【年月・週】</t>
   </si>
   <si>
-    <t>linkbutton</t>
-  </si>
-  <si>
-    <t>IDにリンクボタンの設定を行う。
-クリック時にキーを渡して、画面遷移する。
-（形式： 対象年月(YYYY/MM) W週）</t>
+    <t>YYYY/MM W週の形式で表示する。</t>
   </si>
   <si>
     <t>画面入力値
@@ -318,10 +402,10 @@
 １桁</t>
   </si>
   <si>
-    <t>対象週(FROM)</t>
+    <t>【週・日付】(FROM)</t>
   </si>
   <si>
-    <t>取得した対象週(FROM)を対象週(FROM)として表示する。</t>
+    <t>取得した週の開始日（日曜日）を週・日付(FROM)として表示する。</t>
   </si>
   <si>
     <t>年月週管理マスタ</t>
@@ -336,22 +420,22 @@
     <t>YYYY/MM/DD</t>
   </si>
   <si>
-    <t>検索条件の対象年月、対象週をキーとして、年月週管理マスタより、週の開始日（日曜日）を取得する。</t>
+    <t>検索条件の年月、週をキーとして、年月週管理マスタより、週の開始日（日曜日）を取得する。</t>
   </si>
   <si>
     <t>～</t>
   </si>
   <si>
-    <t>対象週(TO)</t>
+    <t>【週・日付】(TO)</t>
   </si>
   <si>
-    <t>取得した対象週(TO)を対象週(TO)として表示する。</t>
+    <t>取得した週の終了日（土曜日）を週・日付(TO)として表示する。</t>
   </si>
   <si>
     <t>週の終了日（土曜日）</t>
   </si>
   <si>
-    <t>検索条件の対象年月、対象週をキーとして、年月週管理マスタより、週の終了日（土曜日）を取得する。</t>
+    <t>検索条件の年月、週をキーとして、年月週管理マスタより、週の終了日（土曜日）を取得する。</t>
   </si>
   <si>
     <t>（検索結果）</t>
@@ -373,7 +457,7 @@
 タレントID</t>
   </si>
   <si>
-    <t>オンエア管理テーブルの対象年月、対象週と合致するタレントIDのみ表示する。</t>
+    <t>オンエア管理テーブルの年月、週と合致するタレントIDのみ表示する。</t>
   </si>
   <si>
     <t>タレントID</t>
@@ -385,7 +469,7 @@
     <t>週間出演番組本数</t>
   </si>
   <si>
-    <t>対象年月、対象週の期間に対象行のタレントが出演する回数をカウントした内容を表示する</t>
+    <t>年月、週の期間に対象行のタレントが出演する回数をカウントした内容を表示する</t>
   </si>
   <si>
     <t>オンエア管理テーブル
@@ -393,8 +477,8 @@
 オンエア管理テーブル</t>
   </si>
   <si>
-    <t>対象年月
-対象週
+    <t>年月
+週
 タレントID</t>
   </si>
   <si>
@@ -408,7 +492,7 @@
 ８桁</t>
   </si>
   <si>
-    <t>対象年月、対象週、タレントIDで集計した件数を表示する。</t>
+    <t>年月、週、タレントIDで集計した件数を表示する。</t>
   </si>
   <si>
     <t>出演番組（直近）</t>
@@ -425,8 +509,8 @@
 オンエア管理テーブル</t>
   </si>
   <si>
-    <t>対象年月
-対象週
+    <t>年月
+週
 タレントID
 番組ID</t>
   </si>
@@ -443,7 +527,7 @@
 ８桁</t>
   </si>
   <si>
-    <t>対象年月、対象週、タレントIDで取得できたデータのうち、直近で出演するオンエア日の番組IDの番組名を表示する。</t>
+    <t>年月、週、タレントIDで取得できたデータのうち、直近で出演するオンエア日の番組IDの番組名を表示する。</t>
   </si>
   <si>
     <t>番組マスタ
@@ -458,10 +542,10 @@
 ３０桁</t>
   </si>
   <si>
-    <t>オンエア日（直近）</t>
+    <t>オンエア日時（直近）</t>
   </si>
   <si>
-    <t>対象週の期間に対象行のタレントが直近で出演する番組のオンエア日を表示する</t>
+    <t>週の期間に対象行のタレントが直近で出演する番組のオンエア日を表示する</t>
   </si>
   <si>
     <t>オンエア日</t>
@@ -473,10 +557,22 @@
     <t>YYYY/MM/DD HH:SS</t>
   </si>
   <si>
+    <t>最初</t>
+  </si>
+  <si>
+    <t>結果結果のグリッドのページングの先頭に移動する。</t>
+  </si>
+  <si>
     <t>ページングリンク</t>
   </si>
   <si>
     <t>検索結果が10件を超える場合に表示する。ページングリンクで次の10件、前の10件へ遷移できるようにする。（１，２，３，・・・【最終ページ番号】）</t>
+  </si>
+  <si>
+    <t>最後</t>
+  </si>
+  <si>
+    <t>結果結果のグリッドのページングの最後に移動する。</t>
   </si>
   <si>
     <t>1. 処理一覧</t>
@@ -501,6 +597,17 @@
     </r>
   </si>
   <si>
+    <t>検索条件の各値を取得し、パラメータとして、API「週間タレント別情報」を呼び出す。
+APIからの戻り件数0件の場合は、ヘッダーのみ表示する。
+1件以上の場合は、ヘッダーとデータを表示する。</t>
+  </si>
+  <si>
+    <t>最初クリック時</t>
+  </si>
+  <si>
+    <t>最後クリック時</t>
+  </si>
+  <si>
     <t>2. 処理詳細</t>
   </si>
   <si>
@@ -516,7 +623,49 @@
     <t xml:space="preserve">　　2-1-3. （検索結果）のヘッダー、データ部ともに非表示にする。</t>
   </si>
   <si>
-    <t xml:space="preserve">　　2-1-4 　パラメータが存在した場合は、2-2-2以降の検索処理をして画面へ設定する。</t>
+    <t xml:space="preserve">　　2-1-4. 　パラメータが存在した場合は、以下のバリデーションチェックを行う。</t>
+  </si>
+  <si>
+    <t>・モード＝2の場合、</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　 ① 前画面からのパラメータは年月、週は必須で入力されていること。</t>
+  </si>
+  <si>
+    <t>（MSG006）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　 ② 年月がYYYYMM形式であること。</t>
+  </si>
+  <si>
+    <t>（MSG003）年月、有効な日付の年月（YYYYMM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　 ③ 年月がYYYY/MM/01で有効な日付であること。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　 ④ 週が数値であること。</t>
+  </si>
+  <si>
+    <t>（MSG003）週、数値</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　 ⑤ 週が1～5の数値のいずれかであること。</t>
+  </si>
+  <si>
+    <t>（MSG004）週、1、5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　 ⑥ タレント名が設定されている場合は、30桁以内であること。</t>
+  </si>
+  <si>
+    <t>（MSG005）タレント名、30文字</t>
+  </si>
+  <si>
+    <t>上記で、問題があった場合は、処理を中断して、画面の上部にエラーメッセージを表示する。</t>
+  </si>
+  <si>
+    <t>問題がなかった場合は、2-2-2の検索処理をして画面へ設定する。</t>
   </si>
   <si>
     <t xml:space="preserve"> 2.2 検索ボタン押下時</t>
@@ -525,28 +674,19 @@
     <t xml:space="preserve">　　2-2-1. バリデーションチェックとして、以下のチェックを行う。</t>
   </si>
   <si>
-    <t>① 対象年月、対象週が必須で入力されていること。</t>
+    <t xml:space="preserve">　 ① 年月、週は必須で入力されていること。</t>
   </si>
   <si>
-    <t>② 対象年月がYYYY/MM形式であること。</t>
-  </si>
-  <si>
-    <t>③ 対象週が数値かつ、1～5の数値のいずれかであること。</t>
-  </si>
-  <si>
-    <t>④ タレント名が30桁以内であること。</t>
-  </si>
-  <si>
-    <t>※上記のチェック結果を画面上部に表示する。</t>
+    <t>（MSG002）年月と週</t>
   </si>
   <si>
     <t xml:space="preserve">　　2-2-2. API「週間タレント別情報BFF」を呼び出す（API情報は別ブック_API一覧を参照）</t>
   </si>
   <si>
-    <t xml:space="preserve">　　2-2-3.【2-2-2】で取得した結果が存在する場合は、レスポンスの内容を対象週(FROM)～対象週(TO)とデータ部へ設定する。</t>
+    <t xml:space="preserve">　　2-2-3.【2-2-2】で取得した結果が存在する場合は、レスポンスの内容を【年月・週】、【週・日付】とデータ部へ設定する。</t>
   </si>
   <si>
-    <t xml:space="preserve">　　2-2-4.【2-2-3】で取得した結果がない場合は、対象週(FROM)～対象週(TO)とヘッダーのみを表示させる。</t>
+    <t xml:space="preserve">　　2-2-4.【2-2-3】で取得した結果がない場合は、週(FROM)～週(TO)とヘッダーのみを表示させる。</t>
   </si>
   <si>
     <t xml:space="preserve">　　2-2-5.【2-2-3】で取得した結果のうち、データが10件を超える場合は、最初の10件を表示させ、残りは10件ずつ別の領域に保管してページングリンクを表示させる。</t>
@@ -555,25 +695,37 @@
     <t xml:space="preserve"> 2.3 タレント名クリック時</t>
   </si>
   <si>
-    <t xml:space="preserve">　　2-3-1.タレントID、対象年月、対象週をキーとして、次画面「タレント詳細画面（TalentDetail.vue)」へ遷移する。</t>
+    <t xml:space="preserve">　　2-3-1.タレントID、年月、週をキーとして、次画面「タレント詳細画面（TalentDetail.vue)」へ遷移する。</t>
   </si>
   <si>
     <t xml:space="preserve"> 2.4 出演番組（直近）クリック時</t>
   </si>
   <si>
-    <t xml:space="preserve">　　2-4-1.番組ID、オンエア日（直近）、対象年月、対象週をキーとして、次画面「番組詳細画面（ProgramDetail.vue)」へ遷移する。</t>
+    <t xml:space="preserve">　　2-4-1.出演番組ID（直近）、オンエア日時（直近）、年月、週をキーとして、次画面「番組詳細画面（ProgramDetail.vue)」へ遷移する。</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2.5 ページングリンククリック時</t>
+    <t xml:space="preserve"> 2.5 最初クリック時</t>
   </si>
   <si>
-    <t xml:space="preserve">　　2-5-1. クリックした番号の領域に保管されている内容を10件表示させる。</t>
+    <t xml:space="preserve">　　2-5-1. ページングの先頭に移動する。</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2.6 対象年月・週クリック時</t>
+    <t xml:space="preserve"> 2.6 ページングリンククリック時</t>
   </si>
   <si>
-    <t xml:space="preserve">　　2-6-1. リンクボタンをクリック時に、次画面「年月週管理登録画面（更新モード）」へ遷移する。</t>
+    <t xml:space="preserve">　　2-6-1. クリックした番号の領域に保管されている内容を10件表示させる。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.7 最後クリック時</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　　2-7-1. ページングの最後に移動する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.8 TOPリンククリック時</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　　2-8-1. リンクボタンをクリック時に、画面「メインメニュー画面」へ遷移する。</t>
   </si>
 </sst>
 </file>
@@ -583,7 +735,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="22">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -596,6 +748,15 @@
       <name val="游ゴシック"/>
     </font>
     <font/>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -623,11 +784,6 @@
     </font>
     <font>
       <sz val="11.0"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -645,13 +801,14 @@
       <name val="游ゴシック"/>
     </font>
     <font>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="11.0"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -670,6 +827,17 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="7">
@@ -842,7 +1010,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="100">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -883,39 +1051,42 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -930,9 +1101,6 @@
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -942,59 +1110,59 @@
     <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1005,49 +1173,79 @@
     <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="8" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="5" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="5" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="5" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1059,20 +1257,17 @@
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="4" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="4" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1080,47 +1275,41 @@
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1139,29 +1328,58 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>-209550</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="8705850" cy="5791200"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
+    <xdr:ext cx="10896600" cy="5705475"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="9448801" cy="4939612"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="9448801" cy="4939612"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Shape 3"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId1">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="9448801" cy="4939612"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
@@ -1441,9 +1659,9 @@
         <v>9</v>
       </c>
       <c r="H2" s="13">
-        <v>45317.0</v>
-      </c>
-      <c r="I2" s="12" t="s">
+        <v>45322.0</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="6"/>
@@ -1466,200 +1684,207 @@
     </row>
     <row r="3" ht="18.75" customHeight="1"/>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="15">
+      <c r="B5" s="16">
         <v>1.0</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="17">
         <v>45041.0</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="29.25" customHeight="1">
-      <c r="B6" s="15">
+      <c r="B6" s="16">
         <v>2.0</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="17">
         <v>45043.0</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="29.25" customHeight="1">
-      <c r="B7" s="18">
+      <c r="B7" s="19">
         <v>3.0</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="20">
         <v>45316.0</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="B8" s="21">
+      <c r="B8" s="22">
         <v>4.0</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="23">
         <v>45317.0</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" ht="18.75" customHeight="1">
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+    <row r="9" ht="132.0" customHeight="1">
+      <c r="B9" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="C9" s="23">
+        <v>45322.0</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
     </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" ht="18.75" customHeight="1">
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
     </row>
     <row r="16" ht="18.75" customHeight="1">
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
     </row>
     <row r="17" ht="18.75" customHeight="1">
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
     </row>
     <row r="18" ht="18.75" customHeight="1">
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
     </row>
     <row r="19" ht="18.75" customHeight="1">
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
     </row>
     <row r="20" ht="18.75" customHeight="1">
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
     </row>
     <row r="21" ht="18.75" customHeight="1">
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
     </row>
     <row r="22" ht="18.75" customHeight="1">
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
     </row>
     <row r="23" ht="18.75" customHeight="1">
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
     </row>
     <row r="24" ht="18.75" customHeight="1">
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
     </row>
     <row r="25" ht="18.75" customHeight="1">
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
     </row>
     <row r="27" ht="18.75" customHeight="1">
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" ht="18.75" customHeight="1">
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" ht="18.75" customHeight="1">
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
     </row>
     <row r="30" ht="18.75" customHeight="1"/>
     <row r="31" ht="18.75" customHeight="1"/>
@@ -2656,7 +2881,7 @@
     <col customWidth="1" min="1" max="1" width="9.0"/>
     <col customWidth="1" min="2" max="2" width="22.29"/>
     <col customWidth="1" min="3" max="3" width="18.29"/>
-    <col customWidth="1" min="4" max="4" width="53.29"/>
+    <col customWidth="1" min="4" max="4" width="59.86"/>
     <col customWidth="1" min="5" max="6" width="9.0"/>
     <col customWidth="1" min="7" max="7" width="21.29"/>
     <col customWidth="1" min="8" max="9" width="16.29"/>
@@ -2675,13 +2900,13 @@
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="28"/>
       <c r="J1" s="5" t="s">
         <v>3</v>
       </c>
@@ -2715,23 +2940,23 @@
       <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
       <c r="J2" s="11">
         <v>45041.0</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="29">
-        <v>45317.0</v>
-      </c>
-      <c r="M2" s="12" t="s">
+      <c r="L2" s="13">
+        <v>45322.0</v>
+      </c>
+      <c r="M2" s="14" t="s">
         <v>9</v>
       </c>
       <c r="N2" s="6"/>
@@ -2779,7 +3004,7 @@
     <row r="4" ht="16.5" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -3593,7 +3818,7 @@
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -3623,7 +3848,7 @@
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="6"/>
       <c r="B34" s="30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -3755,7 +3980,7 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="33"/>
       <c r="B39" s="34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -3785,13 +4010,13 @@
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="36"/>
       <c r="B40" s="37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D40" s="37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E40" s="33"/>
       <c r="F40" s="33"/>
@@ -3819,13 +4044,13 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="36"/>
       <c r="B41" s="38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E41" s="33"/>
       <c r="F41" s="33"/>
@@ -3853,13 +4078,13 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="36"/>
       <c r="B42" s="38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" s="38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E42" s="33"/>
       <c r="F42" s="33"/>
@@ -3887,13 +4112,13 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="36"/>
       <c r="B43" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E43" s="33"/>
       <c r="F43" s="33"/>
@@ -3919,10 +4144,16 @@
       <c r="Z43" s="33"/>
     </row>
     <row r="44" ht="16.5" customHeight="1">
-      <c r="A44" s="33"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="42" t="s">
+        <v>31</v>
+      </c>
       <c r="E44" s="33"/>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
@@ -3948,11 +4179,9 @@
     </row>
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="33"/>
-      <c r="B45" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
@@ -3977,14 +4206,12 @@
       <c r="Z45" s="33"/>
     </row>
     <row r="46" ht="16.5" customHeight="1">
-      <c r="A46" s="36"/>
-      <c r="B46" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="D46" s="26"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
       <c r="E46" s="33"/>
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
@@ -4008,15 +4235,15 @@
       <c r="Y46" s="33"/>
       <c r="Z46" s="33"/>
     </row>
-    <row r="47" ht="33.75" customHeight="1">
+    <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="36"/>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="44" t="s">
+      <c r="C47" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="27"/>
+      <c r="D47" s="28"/>
       <c r="E47" s="33"/>
       <c r="F47" s="33"/>
       <c r="G47" s="33"/>
@@ -4040,15 +4267,15 @@
       <c r="Y47" s="33"/>
       <c r="Z47" s="33"/>
     </row>
-    <row r="48" ht="60.75" customHeight="1">
+    <row r="48" ht="50.25" customHeight="1">
       <c r="A48" s="36"/>
       <c r="B48" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="45" t="s">
+      <c r="C48" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="D48" s="27"/>
+      <c r="D48" s="28"/>
       <c r="E48" s="33"/>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
@@ -4072,15 +4299,15 @@
       <c r="Y48" s="33"/>
       <c r="Z48" s="33"/>
     </row>
-    <row r="49" ht="48.0" customHeight="1">
+    <row r="49" ht="75.75" customHeight="1">
       <c r="A49" s="36"/>
       <c r="B49" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C49" s="45" t="s">
+      <c r="C49" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="D49" s="27"/>
+      <c r="D49" s="28"/>
       <c r="E49" s="33"/>
       <c r="F49" s="33"/>
       <c r="G49" s="33"/>
@@ -4105,46 +4332,46 @@
       <c r="Z49" s="33"/>
     </row>
     <row r="50" ht="48.0" customHeight="1">
-      <c r="A50" s="6"/>
-      <c r="B50" s="46" t="s">
+      <c r="A50" s="36"/>
+      <c r="B50" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="47" t="s">
+      <c r="C50" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="27"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
-      <c r="U50" s="6"/>
-      <c r="V50" s="6"/>
-      <c r="W50" s="6"/>
-      <c r="X50" s="6"/>
-      <c r="Y50" s="6"/>
-      <c r="Z50" s="6"/>
-    </row>
-    <row r="51" ht="38.25" customHeight="1">
+      <c r="D50" s="28"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="33"/>
+      <c r="M50" s="33"/>
+      <c r="N50" s="33"/>
+      <c r="O50" s="33"/>
+      <c r="P50" s="33"/>
+      <c r="Q50" s="33"/>
+      <c r="R50" s="33"/>
+      <c r="S50" s="33"/>
+      <c r="T50" s="33"/>
+      <c r="U50" s="33"/>
+      <c r="V50" s="33"/>
+      <c r="W50" s="33"/>
+      <c r="X50" s="33"/>
+      <c r="Y50" s="33"/>
+      <c r="Z50" s="33"/>
+    </row>
+    <row r="51" ht="48.0" customHeight="1">
       <c r="A51" s="6"/>
-      <c r="B51" s="48" t="s">
+      <c r="B51" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="45" t="s">
+      <c r="C51" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="D51" s="27"/>
+      <c r="D51" s="28"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -4168,43 +4395,47 @@
       <c r="Y51" s="6"/>
       <c r="Z51" s="6"/>
     </row>
-    <row r="52" ht="36.75" customHeight="1">
-      <c r="A52" s="36"/>
-      <c r="B52" s="49" t="s">
+    <row r="52" ht="38.25" customHeight="1">
+      <c r="A52" s="6"/>
+      <c r="B52" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="50" t="s">
+      <c r="C52" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="D52" s="27"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="33"/>
-      <c r="M52" s="33"/>
-      <c r="N52" s="33"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="33"/>
-      <c r="R52" s="33"/>
-      <c r="S52" s="33"/>
-      <c r="T52" s="33"/>
-      <c r="U52" s="33"/>
-      <c r="V52" s="33"/>
-      <c r="W52" s="33"/>
-      <c r="X52" s="33"/>
-      <c r="Y52" s="33"/>
-      <c r="Z52" s="33"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
+      <c r="D52" s="28"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="6"/>
+    </row>
+    <row r="53" ht="38.25" customHeight="1">
       <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
+      <c r="B53" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="28"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -4228,18 +4459,18 @@
       <c r="Y53" s="6"/>
       <c r="Z53" s="6"/>
     </row>
-    <row r="54" ht="16.5" customHeight="1">
+    <row r="54" ht="38.25" customHeight="1">
       <c r="A54" s="6"/>
-      <c r="B54" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
+      <c r="B54" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" s="28"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="6" t="s">
-        <v>48</v>
-      </c>
+      <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
@@ -4260,66 +4491,50 @@
       <c r="Y54" s="6"/>
       <c r="Z54" s="6"/>
     </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6"/>
-      <c r="R55" s="6"/>
-      <c r="S55" s="6"/>
-      <c r="T55" s="6"/>
-      <c r="U55" s="6"/>
-      <c r="V55" s="6"/>
-      <c r="W55" s="6"/>
-      <c r="X55" s="6"/>
-      <c r="Y55" s="6"/>
-      <c r="Z55" s="6"/>
+    <row r="55" ht="43.5" customHeight="1">
+      <c r="A55" s="36"/>
+      <c r="B55" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="28"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="33"/>
+      <c r="O55" s="33"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="33"/>
+      <c r="U55" s="33"/>
+      <c r="V55" s="33"/>
+      <c r="W55" s="33"/>
+      <c r="X55" s="33"/>
+      <c r="Y55" s="33"/>
+      <c r="Z55" s="33"/>
     </row>
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="6"/>
-      <c r="B56" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="C56" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="D56" s="51" t="s">
-        <v>52</v>
-      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
-      <c r="G56" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="H56" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="I56" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="J56" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="K56" s="51" t="s">
-        <v>52</v>
-      </c>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
@@ -4336,24 +4551,22 @@
       <c r="Y56" s="6"/>
       <c r="Z56" s="6"/>
     </row>
-    <row r="57" ht="90.0" customHeight="1">
+    <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="6"/>
-      <c r="B57" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D57" s="52" t="s">
-        <v>57</v>
-      </c>
+      <c r="B57" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
-      <c r="G57" s="53"/>
-      <c r="H57" s="53"/>
-      <c r="I57" s="53"/>
-      <c r="J57" s="53"/>
-      <c r="K57" s="53"/>
+      <c r="G57" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
@@ -4372,12 +4585,16 @@
     </row>
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
+      <c r="B58" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
+      <c r="G58" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
@@ -4400,20 +4617,32 @@
     </row>
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="6"/>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
-      <c r="G59" s="6" t="s">
+      <c r="G59" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="H59" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="I59" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="J59" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="K59" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
@@ -4430,34 +4659,24 @@
       <c r="Y59" s="6"/>
       <c r="Z59" s="6"/>
     </row>
-    <row r="60" ht="16.5" customHeight="1">
+    <row r="60" ht="135.75" customHeight="1">
       <c r="A60" s="6"/>
-      <c r="B60" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="C60" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="D60" s="51" t="s">
-        <v>52</v>
+      <c r="B60" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" s="52" t="s">
+        <v>63</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
-      <c r="G60" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="H60" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="I60" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="J60" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="K60" s="51" t="s">
-        <v>52</v>
-      </c>
+      <c r="G60" s="53"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="53"/>
+      <c r="K60" s="53"/>
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
@@ -4476,22 +4695,16 @@
     </row>
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="6"/>
-      <c r="B61" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>61</v>
-      </c>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
-      <c r="G61" s="53"/>
-      <c r="H61" s="53"/>
-      <c r="I61" s="53"/>
-      <c r="J61" s="53"/>
-      <c r="K61" s="53"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
@@ -4510,32 +4723,18 @@
     </row>
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="6"/>
-      <c r="B62" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D62" s="12" t="s">
+      <c r="B62" s="54" t="s">
         <v>64</v>
       </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H62" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I62" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="J62" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="K62" s="12" t="s">
-        <v>68</v>
-      </c>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
@@ -4554,22 +4753,32 @@
     </row>
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="6"/>
-      <c r="B63" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63" s="12" t="s">
+      <c r="B63" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="D63" s="12" t="s">
-        <v>61</v>
+      <c r="C63" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" s="51" t="s">
+        <v>58</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="53"/>
-      <c r="H63" s="53"/>
-      <c r="I63" s="53"/>
-      <c r="J63" s="53"/>
-      <c r="K63" s="53"/>
+      <c r="G63" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="H63" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="I63" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="J63" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="K63" s="51" t="s">
+        <v>58</v>
+      </c>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
@@ -4589,31 +4798,21 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="6"/>
       <c r="B64" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>70</v>
+        <v>66</v>
+      </c>
+      <c r="C64" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64" s="57" t="s">
+        <v>52</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
-      <c r="G64" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H64" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I64" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="J64" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K64" s="12" t="s">
-        <v>68</v>
-      </c>
+      <c r="G64" s="58"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="58"/>
+      <c r="J64" s="58"/>
+      <c r="K64" s="58"/>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
@@ -4632,22 +4831,16 @@
     </row>
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="6"/>
-      <c r="B65" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>61</v>
-      </c>
+      <c r="B65" s="59"/>
+      <c r="C65" s="60"/>
+      <c r="D65" s="60"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
-      <c r="G65" s="53"/>
-      <c r="H65" s="53"/>
-      <c r="I65" s="53"/>
-      <c r="J65" s="53"/>
-      <c r="K65" s="53"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="60"/>
+      <c r="K65" s="60"/>
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
@@ -4664,34 +4857,18 @@
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
     </row>
-    <row r="66" ht="43.5" customHeight="1">
+    <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="6"/>
-      <c r="B66" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>72</v>
-      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
-      <c r="G66" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H66" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="I66" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="J66" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="K66" s="48" t="s">
-        <v>77</v>
-      </c>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
@@ -4710,12 +4887,16 @@
     </row>
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
+      <c r="B67" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
+      <c r="G67" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
@@ -4738,16 +4919,32 @@
     </row>
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
+      <c r="B68" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="D68" s="51" t="s">
+        <v>58</v>
+      </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
+      <c r="G68" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="H68" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="I68" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="J68" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="K68" s="51" t="s">
+        <v>58</v>
+      </c>
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
@@ -4766,32 +4963,22 @@
     </row>
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="6"/>
-      <c r="B69" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="C69" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="D69" s="51" t="s">
-        <v>52</v>
+      <c r="B69" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
-      <c r="G69" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="H69" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="I69" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="J69" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="K69" s="51" t="s">
-        <v>52</v>
-      </c>
+      <c r="G69" s="53"/>
+      <c r="H69" s="53"/>
+      <c r="I69" s="53"/>
+      <c r="J69" s="53"/>
+      <c r="K69" s="53"/>
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
@@ -4808,24 +4995,34 @@
       <c r="Y69" s="6"/>
       <c r="Z69" s="6"/>
     </row>
-    <row r="70" ht="34.5" customHeight="1">
+    <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="6"/>
-      <c r="B70" s="12" t="s">
-        <v>78</v>
+      <c r="B70" s="59" t="s">
+        <v>70</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D70" s="48" t="s">
-        <v>80</v>
+        <v>71</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="53"/>
-      <c r="J70" s="53"/>
-      <c r="K70" s="53"/>
+      <c r="G70" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H70" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="I70" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J70" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K70" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
@@ -4842,75 +5039,67 @@
       <c r="Y70" s="6"/>
       <c r="Z70" s="6"/>
     </row>
-    <row r="71" ht="43.5" customHeight="1">
-      <c r="A71" s="36"/>
-      <c r="B71" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="C71" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="D71" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="E71" s="33"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="H71" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="I71" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="J71" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="K71" s="60"/>
-      <c r="L71" s="33"/>
-      <c r="M71" s="33"/>
-      <c r="N71" s="33"/>
-      <c r="O71" s="33"/>
-      <c r="P71" s="33"/>
-      <c r="Q71" s="33"/>
-      <c r="R71" s="33"/>
-      <c r="S71" s="33"/>
-      <c r="T71" s="33"/>
-      <c r="U71" s="33"/>
-      <c r="V71" s="33"/>
-      <c r="W71" s="33"/>
-      <c r="X71" s="33"/>
-      <c r="Y71" s="33"/>
-      <c r="Z71" s="33"/>
-    </row>
-    <row r="72" ht="46.5" customHeight="1">
+    <row r="71" ht="16.5" customHeight="1">
+      <c r="A71" s="6"/>
+      <c r="B71" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="53"/>
+      <c r="H71" s="53"/>
+      <c r="I71" s="53"/>
+      <c r="J71" s="53"/>
+      <c r="K71" s="53"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
+      <c r="U71" s="6"/>
+      <c r="V71" s="6"/>
+      <c r="W71" s="6"/>
+      <c r="X71" s="6"/>
+      <c r="Y71" s="6"/>
+      <c r="Z71" s="6"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="6"/>
-      <c r="B72" s="12" t="s">
-        <v>87</v>
+      <c r="B72" s="59" t="s">
+        <v>70</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D72" s="61" t="s">
-        <v>88</v>
+        <v>71</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
-      <c r="G72" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="H72" s="63" t="s">
-        <v>90</v>
-      </c>
-      <c r="I72" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="J72" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="K72" s="63" t="s">
-        <v>93</v>
+      <c r="G72" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H72" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="I72" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J72" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K72" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
@@ -4930,22 +5119,22 @@
     </row>
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="6"/>
-      <c r="B73" s="12" t="s">
-        <v>94</v>
+      <c r="B73" s="63" t="s">
+        <v>32</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D73" s="65" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
-      <c r="G73" s="66"/>
-      <c r="H73" s="66"/>
-      <c r="I73" s="66"/>
-      <c r="J73" s="66"/>
-      <c r="K73" s="66"/>
+      <c r="G73" s="53"/>
+      <c r="H73" s="53"/>
+      <c r="I73" s="53"/>
+      <c r="J73" s="53"/>
+      <c r="K73" s="53"/>
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
@@ -4962,33 +5151,33 @@
       <c r="Y73" s="6"/>
       <c r="Z73" s="6"/>
     </row>
-    <row r="74" ht="48.0" customHeight="1">
+    <row r="74" ht="43.5" customHeight="1">
       <c r="A74" s="6"/>
-      <c r="B74" s="12" t="s">
-        <v>95</v>
+      <c r="B74" s="64" t="s">
+        <v>78</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D74" s="67" t="s">
-        <v>96</v>
+        <v>71</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
-      <c r="G74" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="H74" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="I74" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="J74" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="K74" s="63" t="s">
-        <v>98</v>
+      <c r="G74" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="H74" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="I74" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="J74" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="K74" s="49" t="s">
+        <v>84</v>
       </c>
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
@@ -5036,16 +5225,12 @@
     </row>
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="6"/>
-      <c r="B76" s="6" t="s">
-        <v>99</v>
-      </c>
+      <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
-      <c r="G76" s="6" t="s">
-        <v>58</v>
-      </c>
+      <c r="G76" s="6"/>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
@@ -5069,30 +5254,30 @@
     <row r="77" ht="16.5" customHeight="1">
       <c r="A77" s="6"/>
       <c r="B77" s="51" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C77" s="51" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D77" s="51" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="51" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H77" s="51" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I77" s="51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J77" s="51" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K77" s="51" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
@@ -5110,24 +5295,24 @@
       <c r="Y77" s="6"/>
       <c r="Z77" s="6"/>
     </row>
-    <row r="78" ht="16.5" customHeight="1">
+    <row r="78" ht="34.5" customHeight="1">
       <c r="A78" s="6"/>
-      <c r="B78" s="54" t="s">
-        <v>31</v>
+      <c r="B78" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>100</v>
+        <v>86</v>
+      </c>
+      <c r="D78" s="49" t="s">
+        <v>87</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
-      <c r="G78" s="68"/>
-      <c r="H78" s="68"/>
-      <c r="I78" s="68"/>
-      <c r="J78" s="68"/>
-      <c r="K78" s="68"/>
+      <c r="G78" s="53"/>
+      <c r="H78" s="53"/>
+      <c r="I78" s="53"/>
+      <c r="J78" s="53"/>
+      <c r="K78" s="53"/>
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
@@ -5144,68 +5329,76 @@
       <c r="Y78" s="6"/>
       <c r="Z78" s="6"/>
     </row>
-    <row r="79" ht="49.5" customHeight="1">
-      <c r="A79" s="6"/>
-      <c r="B79" s="69"/>
-      <c r="C79" s="70" t="s">
+    <row r="79" ht="43.5" customHeight="1">
+      <c r="A79" s="36"/>
+      <c r="B79" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="D79" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="E79" s="33"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="H79" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="I79" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="D79" s="71" t="s">
-        <v>101</v>
-      </c>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="H79" s="61" t="s">
-        <v>103</v>
-      </c>
-      <c r="I79" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="J79" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="K79" s="72" t="s">
-        <v>104</v>
-      </c>
-      <c r="L79" s="6"/>
-      <c r="M79" s="6"/>
-      <c r="N79" s="6"/>
-      <c r="O79" s="6"/>
-      <c r="P79" s="6"/>
-      <c r="Q79" s="6"/>
-      <c r="R79" s="6"/>
-      <c r="S79" s="6"/>
-      <c r="T79" s="6"/>
-      <c r="U79" s="6"/>
-      <c r="V79" s="6"/>
-      <c r="W79" s="6"/>
-      <c r="X79" s="6"/>
-      <c r="Y79" s="6"/>
-      <c r="Z79" s="6"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
+      <c r="J79" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="K79" s="69"/>
+      <c r="L79" s="33"/>
+      <c r="M79" s="33"/>
+      <c r="N79" s="33"/>
+      <c r="O79" s="33"/>
+      <c r="P79" s="33"/>
+      <c r="Q79" s="33"/>
+      <c r="R79" s="33"/>
+      <c r="S79" s="33"/>
+      <c r="T79" s="33"/>
+      <c r="U79" s="33"/>
+      <c r="V79" s="33"/>
+      <c r="W79" s="33"/>
+      <c r="X79" s="33"/>
+      <c r="Y79" s="33"/>
+      <c r="Z79" s="33"/>
+    </row>
+    <row r="80" ht="46.5" customHeight="1">
       <c r="A80" s="6"/>
-      <c r="B80" s="56"/>
-      <c r="C80" s="73"/>
-      <c r="D80" s="73"/>
+      <c r="B80" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C80" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="D80" s="70" t="s">
+        <v>94</v>
+      </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
-      <c r="G80" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="H80" s="61" t="s">
-        <v>105</v>
-      </c>
-      <c r="I80" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="J80" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="K80" s="73"/>
+      <c r="G80" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="H80" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="I80" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="J80" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="K80" s="74" t="s">
+        <v>99</v>
+      </c>
       <c r="L80" s="6"/>
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
@@ -5224,22 +5417,22 @@
     </row>
     <row r="81" ht="16.5" customHeight="1">
       <c r="A81" s="6"/>
-      <c r="B81" s="54" t="s">
-        <v>107</v>
+      <c r="B81" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D81" s="12" t="s">
-        <v>100</v>
+        <v>62</v>
+      </c>
+      <c r="D81" s="75" t="s">
+        <v>69</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
-      <c r="G81" s="68"/>
-      <c r="H81" s="68"/>
-      <c r="I81" s="68"/>
-      <c r="J81" s="68"/>
-      <c r="K81" s="68"/>
+      <c r="G81" s="76"/>
+      <c r="H81" s="76"/>
+      <c r="I81" s="76"/>
+      <c r="J81" s="76"/>
+      <c r="K81" s="76"/>
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
@@ -5256,31 +5449,33 @@
       <c r="Y81" s="6"/>
       <c r="Z81" s="6"/>
     </row>
-    <row r="82" ht="57.0" customHeight="1">
+    <row r="82" ht="48.0" customHeight="1">
       <c r="A82" s="6"/>
-      <c r="B82" s="56"/>
-      <c r="C82" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D82" s="48" t="s">
-        <v>108</v>
+      <c r="B82" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C82" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="D82" s="77" t="s">
+        <v>102</v>
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
-      <c r="G82" s="61" t="s">
-        <v>109</v>
-      </c>
-      <c r="H82" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="I82" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="J82" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="K82" s="61" t="s">
-        <v>113</v>
+      <c r="G82" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="H82" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="I82" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="J82" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="K82" s="74" t="s">
+        <v>104</v>
       </c>
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
@@ -5300,22 +5495,16 @@
     </row>
     <row r="83" ht="16.5" customHeight="1">
       <c r="A83" s="6"/>
-      <c r="B83" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>100</v>
-      </c>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
-      <c r="G83" s="53"/>
-      <c r="H83" s="53"/>
-      <c r="I83" s="53"/>
-      <c r="J83" s="53"/>
-      <c r="K83" s="53"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
       <c r="L83" s="6"/>
       <c r="M83" s="6"/>
       <c r="N83" s="6"/>
@@ -5332,32 +5521,22 @@
       <c r="Y83" s="6"/>
       <c r="Z83" s="6"/>
     </row>
-    <row r="84" ht="92.25" customHeight="1">
+    <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="6"/>
-      <c r="B84" s="69"/>
-      <c r="C84" s="74" t="s">
-        <v>82</v>
-      </c>
-      <c r="D84" s="75" t="s">
-        <v>115</v>
-      </c>
+      <c r="B84" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
-      <c r="G84" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="H84" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="I84" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="J84" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="K84" s="76" t="s">
-        <v>120</v>
-      </c>
+      <c r="G84" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
       <c r="L84" s="6"/>
       <c r="M84" s="6"/>
       <c r="N84" s="6"/>
@@ -5374,26 +5553,34 @@
       <c r="Y84" s="6"/>
       <c r="Z84" s="6"/>
     </row>
-    <row r="85" ht="45.0" customHeight="1">
+    <row r="85" ht="16.5" customHeight="1">
       <c r="A85" s="6"/>
-      <c r="B85" s="56"/>
-      <c r="C85" s="73"/>
-      <c r="D85" s="73"/>
+      <c r="B85" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C85" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="D85" s="51" t="s">
+        <v>58</v>
+      </c>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
-      <c r="G85" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H85" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="I85" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="J85" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="K85" s="73"/>
+      <c r="G85" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="H85" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="I85" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="J85" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="K85" s="51" t="s">
+        <v>58</v>
+      </c>
       <c r="L85" s="6"/>
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
@@ -5412,22 +5599,22 @@
     </row>
     <row r="86" ht="16.5" customHeight="1">
       <c r="A86" s="6"/>
-      <c r="B86" s="54" t="s">
-        <v>124</v>
+      <c r="B86" s="63" t="s">
+        <v>32</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
-      <c r="G86" s="53"/>
-      <c r="H86" s="53"/>
-      <c r="I86" s="53"/>
-      <c r="J86" s="53"/>
-      <c r="K86" s="53"/>
+      <c r="G86" s="78"/>
+      <c r="H86" s="78"/>
+      <c r="I86" s="78"/>
+      <c r="J86" s="78"/>
+      <c r="K86" s="78"/>
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
       <c r="N86" s="6"/>
@@ -5444,30 +5631,32 @@
       <c r="Y86" s="6"/>
       <c r="Z86" s="6"/>
     </row>
-    <row r="87" ht="38.25" customHeight="1">
-      <c r="A87" s="77"/>
-      <c r="B87" s="78"/>
-      <c r="C87" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D87" s="48" t="s">
-        <v>125</v>
+    <row r="87" ht="49.5" customHeight="1">
+      <c r="A87" s="6"/>
+      <c r="B87" s="79"/>
+      <c r="C87" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="D87" s="81" t="s">
+        <v>107</v>
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
-      <c r="G87" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H87" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="I87" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="J87" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="K87" s="12"/>
+      <c r="G87" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="H87" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="I87" s="82" t="s">
+        <v>82</v>
+      </c>
+      <c r="J87" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="K87" s="83" t="s">
+        <v>110</v>
+      </c>
       <c r="L87" s="6"/>
       <c r="M87" s="6"/>
       <c r="N87" s="6"/>
@@ -5484,24 +5673,26 @@
       <c r="Y87" s="6"/>
       <c r="Z87" s="6"/>
     </row>
-    <row r="88" ht="59.25" customHeight="1">
-      <c r="A88" s="77"/>
-      <c r="B88" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="C88" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D88" s="48" t="s">
-        <v>130</v>
-      </c>
+    <row r="88" ht="16.5" customHeight="1">
+      <c r="A88" s="6"/>
+      <c r="B88" s="64"/>
+      <c r="C88" s="60"/>
+      <c r="D88" s="60"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
-      <c r="G88" s="53"/>
-      <c r="H88" s="53"/>
-      <c r="I88" s="53"/>
-      <c r="J88" s="53"/>
-      <c r="K88" s="53"/>
+      <c r="G88" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="H88" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="I88" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="J88" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="K88" s="60"/>
       <c r="L88" s="6"/>
       <c r="M88" s="6"/>
       <c r="N88" s="6"/>
@@ -5520,16 +5711,22 @@
     </row>
     <row r="89" ht="16.5" customHeight="1">
       <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
+      <c r="B89" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>106</v>
+      </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
+      <c r="G89" s="78"/>
+      <c r="H89" s="78"/>
+      <c r="I89" s="78"/>
+      <c r="J89" s="78"/>
+      <c r="K89" s="78"/>
       <c r="L89" s="6"/>
       <c r="M89" s="6"/>
       <c r="N89" s="6"/>
@@ -5546,18 +5743,32 @@
       <c r="Y89" s="6"/>
       <c r="Z89" s="6"/>
     </row>
-    <row r="90" ht="16.5" customHeight="1">
+    <row r="90" ht="57.0" customHeight="1">
       <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
+      <c r="B90" s="64"/>
+      <c r="C90" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D90" s="52" t="s">
+        <v>114</v>
+      </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
+      <c r="G90" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="H90" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="I90" s="82" t="s">
+        <v>117</v>
+      </c>
+      <c r="J90" s="82" t="s">
+        <v>118</v>
+      </c>
+      <c r="K90" s="84" t="s">
+        <v>119</v>
+      </c>
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
       <c r="N90" s="6"/>
@@ -5576,16 +5787,22 @@
     </row>
     <row r="91" ht="16.5" customHeight="1">
       <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
+      <c r="B91" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>106</v>
+      </c>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
+      <c r="G91" s="53"/>
+      <c r="H91" s="53"/>
+      <c r="I91" s="53"/>
+      <c r="J91" s="53"/>
+      <c r="K91" s="53"/>
       <c r="L91" s="6"/>
       <c r="M91" s="6"/>
       <c r="N91" s="6"/>
@@ -5602,18 +5819,32 @@
       <c r="Y91" s="6"/>
       <c r="Z91" s="6"/>
     </row>
-    <row r="92" ht="16.5" customHeight="1">
+    <row r="92" ht="92.25" customHeight="1">
       <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
+      <c r="B92" s="79"/>
+      <c r="C92" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="D92" s="85" t="s">
+        <v>121</v>
+      </c>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
+      <c r="G92" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H92" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="I92" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="J92" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="K92" s="81" t="s">
+        <v>126</v>
+      </c>
       <c r="L92" s="6"/>
       <c r="M92" s="6"/>
       <c r="N92" s="6"/>
@@ -5630,18 +5861,26 @@
       <c r="Y92" s="6"/>
       <c r="Z92" s="6"/>
     </row>
-    <row r="93" ht="16.5" customHeight="1">
+    <row r="93" ht="45.0" customHeight="1">
       <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
+      <c r="B93" s="64"/>
+      <c r="C93" s="60"/>
+      <c r="D93" s="60"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
+      <c r="G93" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H93" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I93" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="J93" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="K93" s="60"/>
       <c r="L93" s="6"/>
       <c r="M93" s="6"/>
       <c r="N93" s="6"/>
@@ -5660,16 +5899,22 @@
     </row>
     <row r="94" ht="16.5" customHeight="1">
       <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
+      <c r="B94" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>106</v>
+      </c>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
+      <c r="G94" s="53"/>
+      <c r="H94" s="53"/>
+      <c r="I94" s="53"/>
+      <c r="J94" s="53"/>
+      <c r="K94" s="53"/>
       <c r="L94" s="6"/>
       <c r="M94" s="6"/>
       <c r="N94" s="6"/>
@@ -5686,18 +5931,30 @@
       <c r="Y94" s="6"/>
       <c r="Z94" s="6"/>
     </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
+    <row r="95" ht="38.25" customHeight="1">
+      <c r="A95" s="86"/>
+      <c r="B95" s="87"/>
+      <c r="C95" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D95" s="52" t="s">
+        <v>131</v>
+      </c>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
+      <c r="G95" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H95" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="I95" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="J95" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="K95" s="12"/>
       <c r="L95" s="6"/>
       <c r="M95" s="6"/>
       <c r="N95" s="6"/>
@@ -5714,18 +5971,24 @@
       <c r="Y95" s="6"/>
       <c r="Z95" s="6"/>
     </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
+    <row r="96" ht="59.25" customHeight="1">
+      <c r="A96" s="86"/>
+      <c r="B96" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="C96" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="D96" s="88" t="s">
+        <v>136</v>
+      </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
+      <c r="G96" s="53"/>
+      <c r="H96" s="53"/>
+      <c r="I96" s="53"/>
+      <c r="J96" s="53"/>
+      <c r="K96" s="53"/>
       <c r="L96" s="6"/>
       <c r="M96" s="6"/>
       <c r="N96" s="6"/>
@@ -5742,18 +6005,24 @@
       <c r="Y96" s="6"/>
       <c r="Z96" s="6"/>
     </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c r="A97" s="6"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
+    <row r="97" ht="59.25" customHeight="1">
+      <c r="A97" s="86"/>
+      <c r="B97" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D97" s="49" t="s">
+        <v>138</v>
+      </c>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
+      <c r="G97" s="53"/>
+      <c r="H97" s="53"/>
+      <c r="I97" s="53"/>
+      <c r="J97" s="53"/>
+      <c r="K97" s="53"/>
       <c r="L97" s="6"/>
       <c r="M97" s="6"/>
       <c r="N97" s="6"/>
@@ -5770,18 +6039,24 @@
       <c r="Y97" s="6"/>
       <c r="Z97" s="6"/>
     </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c r="A98" s="6"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
+    <row r="98" ht="59.25" customHeight="1">
+      <c r="A98" s="86"/>
+      <c r="B98" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C98" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="D98" s="88" t="s">
+        <v>140</v>
+      </c>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
+      <c r="G98" s="53"/>
+      <c r="H98" s="53"/>
+      <c r="I98" s="53"/>
+      <c r="J98" s="53"/>
+      <c r="K98" s="53"/>
       <c r="L98" s="6"/>
       <c r="M98" s="6"/>
       <c r="N98" s="6"/>
@@ -31250,25 +31525,286 @@
       <c r="Y1007" s="6"/>
       <c r="Z1007" s="6"/>
     </row>
+    <row r="1008" ht="16.5" customHeight="1">
+      <c r="A1008" s="6"/>
+      <c r="B1008" s="6"/>
+      <c r="C1008" s="6"/>
+      <c r="D1008" s="6"/>
+      <c r="E1008" s="6"/>
+      <c r="F1008" s="6"/>
+      <c r="G1008" s="6"/>
+      <c r="H1008" s="6"/>
+      <c r="I1008" s="6"/>
+      <c r="J1008" s="6"/>
+      <c r="K1008" s="6"/>
+      <c r="L1008" s="6"/>
+      <c r="M1008" s="6"/>
+      <c r="N1008" s="6"/>
+      <c r="O1008" s="6"/>
+      <c r="P1008" s="6"/>
+      <c r="Q1008" s="6"/>
+      <c r="R1008" s="6"/>
+      <c r="S1008" s="6"/>
+      <c r="T1008" s="6"/>
+      <c r="U1008" s="6"/>
+      <c r="V1008" s="6"/>
+      <c r="W1008" s="6"/>
+      <c r="X1008" s="6"/>
+      <c r="Y1008" s="6"/>
+      <c r="Z1008" s="6"/>
+    </row>
+    <row r="1009" ht="16.5" customHeight="1">
+      <c r="A1009" s="6"/>
+      <c r="B1009" s="6"/>
+      <c r="C1009" s="6"/>
+      <c r="D1009" s="6"/>
+      <c r="E1009" s="6"/>
+      <c r="F1009" s="6"/>
+      <c r="G1009" s="6"/>
+      <c r="H1009" s="6"/>
+      <c r="I1009" s="6"/>
+      <c r="J1009" s="6"/>
+      <c r="K1009" s="6"/>
+      <c r="L1009" s="6"/>
+      <c r="M1009" s="6"/>
+      <c r="N1009" s="6"/>
+      <c r="O1009" s="6"/>
+      <c r="P1009" s="6"/>
+      <c r="Q1009" s="6"/>
+      <c r="R1009" s="6"/>
+      <c r="S1009" s="6"/>
+      <c r="T1009" s="6"/>
+      <c r="U1009" s="6"/>
+      <c r="V1009" s="6"/>
+      <c r="W1009" s="6"/>
+      <c r="X1009" s="6"/>
+      <c r="Y1009" s="6"/>
+      <c r="Z1009" s="6"/>
+    </row>
+    <row r="1010" ht="16.5" customHeight="1">
+      <c r="A1010" s="6"/>
+      <c r="B1010" s="6"/>
+      <c r="C1010" s="6"/>
+      <c r="D1010" s="6"/>
+      <c r="E1010" s="6"/>
+      <c r="F1010" s="6"/>
+      <c r="G1010" s="6"/>
+      <c r="H1010" s="6"/>
+      <c r="I1010" s="6"/>
+      <c r="J1010" s="6"/>
+      <c r="K1010" s="6"/>
+      <c r="L1010" s="6"/>
+      <c r="M1010" s="6"/>
+      <c r="N1010" s="6"/>
+      <c r="O1010" s="6"/>
+      <c r="P1010" s="6"/>
+      <c r="Q1010" s="6"/>
+      <c r="R1010" s="6"/>
+      <c r="S1010" s="6"/>
+      <c r="T1010" s="6"/>
+      <c r="U1010" s="6"/>
+      <c r="V1010" s="6"/>
+      <c r="W1010" s="6"/>
+      <c r="X1010" s="6"/>
+      <c r="Y1010" s="6"/>
+      <c r="Z1010" s="6"/>
+    </row>
+    <row r="1011" ht="16.5" customHeight="1">
+      <c r="A1011" s="6"/>
+      <c r="B1011" s="6"/>
+      <c r="C1011" s="6"/>
+      <c r="D1011" s="6"/>
+      <c r="E1011" s="6"/>
+      <c r="F1011" s="6"/>
+      <c r="G1011" s="6"/>
+      <c r="H1011" s="6"/>
+      <c r="I1011" s="6"/>
+      <c r="J1011" s="6"/>
+      <c r="K1011" s="6"/>
+      <c r="L1011" s="6"/>
+      <c r="M1011" s="6"/>
+      <c r="N1011" s="6"/>
+      <c r="O1011" s="6"/>
+      <c r="P1011" s="6"/>
+      <c r="Q1011" s="6"/>
+      <c r="R1011" s="6"/>
+      <c r="S1011" s="6"/>
+      <c r="T1011" s="6"/>
+      <c r="U1011" s="6"/>
+      <c r="V1011" s="6"/>
+      <c r="W1011" s="6"/>
+      <c r="X1011" s="6"/>
+      <c r="Y1011" s="6"/>
+      <c r="Z1011" s="6"/>
+    </row>
+    <row r="1012" ht="16.5" customHeight="1">
+      <c r="A1012" s="6"/>
+      <c r="B1012" s="6"/>
+      <c r="C1012" s="6"/>
+      <c r="D1012" s="6"/>
+      <c r="E1012" s="6"/>
+      <c r="F1012" s="6"/>
+      <c r="G1012" s="6"/>
+      <c r="H1012" s="6"/>
+      <c r="I1012" s="6"/>
+      <c r="J1012" s="6"/>
+      <c r="K1012" s="6"/>
+      <c r="L1012" s="6"/>
+      <c r="M1012" s="6"/>
+      <c r="N1012" s="6"/>
+      <c r="O1012" s="6"/>
+      <c r="P1012" s="6"/>
+      <c r="Q1012" s="6"/>
+      <c r="R1012" s="6"/>
+      <c r="S1012" s="6"/>
+      <c r="T1012" s="6"/>
+      <c r="U1012" s="6"/>
+      <c r="V1012" s="6"/>
+      <c r="W1012" s="6"/>
+      <c r="X1012" s="6"/>
+      <c r="Y1012" s="6"/>
+      <c r="Z1012" s="6"/>
+    </row>
+    <row r="1013" ht="16.5" customHeight="1">
+      <c r="A1013" s="6"/>
+      <c r="B1013" s="6"/>
+      <c r="C1013" s="6"/>
+      <c r="D1013" s="6"/>
+      <c r="E1013" s="6"/>
+      <c r="F1013" s="6"/>
+      <c r="G1013" s="6"/>
+      <c r="H1013" s="6"/>
+      <c r="I1013" s="6"/>
+      <c r="J1013" s="6"/>
+      <c r="K1013" s="6"/>
+      <c r="L1013" s="6"/>
+      <c r="M1013" s="6"/>
+      <c r="N1013" s="6"/>
+      <c r="O1013" s="6"/>
+      <c r="P1013" s="6"/>
+      <c r="Q1013" s="6"/>
+      <c r="R1013" s="6"/>
+      <c r="S1013" s="6"/>
+      <c r="T1013" s="6"/>
+      <c r="U1013" s="6"/>
+      <c r="V1013" s="6"/>
+      <c r="W1013" s="6"/>
+      <c r="X1013" s="6"/>
+      <c r="Y1013" s="6"/>
+      <c r="Z1013" s="6"/>
+    </row>
+    <row r="1014" ht="16.5" customHeight="1">
+      <c r="A1014" s="6"/>
+      <c r="B1014" s="6"/>
+      <c r="C1014" s="6"/>
+      <c r="D1014" s="6"/>
+      <c r="E1014" s="6"/>
+      <c r="F1014" s="6"/>
+      <c r="G1014" s="6"/>
+      <c r="H1014" s="6"/>
+      <c r="I1014" s="6"/>
+      <c r="J1014" s="6"/>
+      <c r="K1014" s="6"/>
+      <c r="L1014" s="6"/>
+      <c r="M1014" s="6"/>
+      <c r="N1014" s="6"/>
+      <c r="O1014" s="6"/>
+      <c r="P1014" s="6"/>
+      <c r="Q1014" s="6"/>
+      <c r="R1014" s="6"/>
+      <c r="S1014" s="6"/>
+      <c r="T1014" s="6"/>
+      <c r="U1014" s="6"/>
+      <c r="V1014" s="6"/>
+      <c r="W1014" s="6"/>
+      <c r="X1014" s="6"/>
+      <c r="Y1014" s="6"/>
+      <c r="Z1014" s="6"/>
+    </row>
+    <row r="1015" ht="16.5" customHeight="1">
+      <c r="A1015" s="6"/>
+      <c r="B1015" s="6"/>
+      <c r="C1015" s="6"/>
+      <c r="D1015" s="6"/>
+      <c r="E1015" s="6"/>
+      <c r="F1015" s="6"/>
+      <c r="G1015" s="6"/>
+      <c r="H1015" s="6"/>
+      <c r="I1015" s="6"/>
+      <c r="J1015" s="6"/>
+      <c r="K1015" s="6"/>
+      <c r="L1015" s="6"/>
+      <c r="M1015" s="6"/>
+      <c r="N1015" s="6"/>
+      <c r="O1015" s="6"/>
+      <c r="P1015" s="6"/>
+      <c r="Q1015" s="6"/>
+      <c r="R1015" s="6"/>
+      <c r="S1015" s="6"/>
+      <c r="T1015" s="6"/>
+      <c r="U1015" s="6"/>
+      <c r="V1015" s="6"/>
+      <c r="W1015" s="6"/>
+      <c r="X1015" s="6"/>
+      <c r="Y1015" s="6"/>
+      <c r="Z1015" s="6"/>
+    </row>
+    <row r="1016" ht="16.5" customHeight="1">
+      <c r="A1016" s="6"/>
+      <c r="B1016" s="6"/>
+      <c r="C1016" s="6"/>
+      <c r="D1016" s="6"/>
+      <c r="E1016" s="6"/>
+      <c r="F1016" s="6"/>
+      <c r="G1016" s="6"/>
+      <c r="H1016" s="6"/>
+      <c r="I1016" s="6"/>
+      <c r="J1016" s="6"/>
+      <c r="K1016" s="6"/>
+      <c r="L1016" s="6"/>
+      <c r="M1016" s="6"/>
+      <c r="N1016" s="6"/>
+      <c r="O1016" s="6"/>
+      <c r="P1016" s="6"/>
+      <c r="Q1016" s="6"/>
+      <c r="R1016" s="6"/>
+      <c r="S1016" s="6"/>
+      <c r="T1016" s="6"/>
+      <c r="U1016" s="6"/>
+      <c r="V1016" s="6"/>
+      <c r="W1016" s="6"/>
+      <c r="X1016" s="6"/>
+      <c r="Y1016" s="6"/>
+      <c r="Z1016" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="26">
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="K92:K93"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="B34:H37"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C54:D54"/>
     <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="C53:D53"/>
     <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="C55:D55"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -31306,13 +31842,13 @@
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="28"/>
       <c r="J1" s="5" t="s">
         <v>3</v>
       </c>
@@ -31346,23 +31882,23 @@
       <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
       <c r="J2" s="11">
         <v>45041.0</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="29">
-        <v>45317.0</v>
-      </c>
-      <c r="M2" s="12" t="s">
+      <c r="L2" s="13">
+        <v>45322.0</v>
+      </c>
+      <c r="M2" s="14" t="s">
         <v>9</v>
       </c>
       <c r="N2" s="6"/>
@@ -31381,352 +31917,391 @@
     </row>
     <row r="3" ht="18.75" customHeight="1"/>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="B4" s="79" t="s">
-        <v>131</v>
+      <c r="B4" s="89" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="81" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="27"/>
+      <c r="C5" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="28"/>
     </row>
     <row r="6" ht="41.25" customHeight="1">
-      <c r="B6" s="15">
+      <c r="B6" s="16">
         <v>1.0</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" s="27"/>
+        <v>37</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" ht="84.75" customHeight="1">
-      <c r="B7" s="15">
+      <c r="B7" s="16">
         <v>2.0</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="27"/>
+        <v>39</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" ht="69.0" customHeight="1">
-      <c r="B8" s="15">
+      <c r="B8" s="16">
         <v>3.0</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="27"/>
+        <v>41</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" ht="69.0" customHeight="1">
-      <c r="B9" s="82">
+      <c r="B9" s="92">
         <v>4.0</v>
       </c>
-      <c r="C9" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="27"/>
+      <c r="C9" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" ht="60.75" customHeight="1">
-      <c r="B10" s="83">
+      <c r="B10" s="19">
         <v>5.0</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="27"/>
-    </row>
-    <row r="11" ht="36.75" customHeight="1">
-      <c r="A11" s="84"/>
-      <c r="B11" s="85">
+      <c r="C10" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="28"/>
+    </row>
+    <row r="11" ht="60.75" customHeight="1">
+      <c r="B11" s="93">
         <v>6.0</v>
       </c>
-      <c r="C11" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="87" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="88"/>
-      <c r="S11" s="88"/>
-      <c r="T11" s="88"/>
-      <c r="U11" s="88"/>
-      <c r="V11" s="88"/>
-      <c r="W11" s="88"/>
-      <c r="X11" s="88"/>
-      <c r="Y11" s="88"/>
-      <c r="Z11" s="88"/>
-    </row>
-    <row r="12" ht="18.75" customHeight="1">
-      <c r="B12" s="79"/>
-    </row>
-    <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="79" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" ht="18.75" customHeight="1"/>
+      <c r="C11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="28"/>
+    </row>
+    <row r="12" ht="60.75" customHeight="1">
+      <c r="B12" s="19">
+        <v>7.0</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="28"/>
+    </row>
+    <row r="13" ht="52.5" customHeight="1">
+      <c r="B13" s="19">
+        <v>8.0</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="28"/>
+    </row>
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="B14" s="89"/>
+    </row>
     <row r="15" ht="18.75" customHeight="1">
-      <c r="B15" s="79" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" ht="18.75" customHeight="1">
-      <c r="B16" s="79" t="s">
-        <v>135</v>
-      </c>
-    </row>
+      <c r="B15" s="89" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" ht="18.75" customHeight="1"/>
     <row r="17" ht="18.75" customHeight="1">
-      <c r="B17" s="79" t="s">
-        <v>136</v>
+      <c r="B17" s="89" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="18" ht="18.75" customHeight="1">
-      <c r="B18" s="79" t="s">
-        <v>137</v>
+      <c r="B18" s="89" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="19" ht="18.75" customHeight="1">
       <c r="B19" s="89" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="90"/>
-    </row>
-    <row r="20" ht="18.75" customHeight="1"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="B20" s="89" t="s">
+        <v>150</v>
+      </c>
+    </row>
     <row r="21" ht="18.75" customHeight="1">
-      <c r="B21" s="79" t="s">
-        <v>139</v>
-      </c>
+      <c r="B21" s="94" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="95"/>
     </row>
     <row r="22" ht="18.75" customHeight="1">
-      <c r="B22" s="79" t="s">
-        <v>140</v>
+      <c r="C22" s="96" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="1">
-      <c r="C23" s="79" t="s">
-        <v>141</v>
+      <c r="C23" s="97" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" s="96" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="24" ht="18.75" customHeight="1">
-      <c r="C24" s="79" t="s">
-        <v>142</v>
+      <c r="C24" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" s="96" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="25" ht="18.75" customHeight="1">
-      <c r="C25" s="79" t="s">
-        <v>143</v>
+      <c r="C25" s="97" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25" s="96" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="26" ht="18.75" customHeight="1">
-      <c r="C26" s="79" t="s">
-        <v>144</v>
+      <c r="C26" s="97" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" s="96" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="27" ht="18.75" customHeight="1">
-      <c r="C27" s="79" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="28" ht="18.75" customHeight="1"/>
+      <c r="C27" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" s="96" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" ht="18.75" customHeight="1">
+      <c r="C28" s="97" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28" s="96" t="s">
+        <v>163</v>
+      </c>
+    </row>
     <row r="29" ht="18.75" customHeight="1">
-      <c r="B29" s="91" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="30" ht="18.75" customHeight="1"/>
+      <c r="C29" s="96" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" ht="18.75" customHeight="1">
+      <c r="C30" s="96" t="s">
+        <v>165</v>
+      </c>
+    </row>
     <row r="31" ht="18.75" customHeight="1">
-      <c r="B31" s="79" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="32" ht="18.75" customHeight="1"/>
+      <c r="B31" s="89"/>
+    </row>
+    <row r="32" ht="18.75" customHeight="1">
+      <c r="B32" s="89" t="s">
+        <v>166</v>
+      </c>
+    </row>
     <row r="33" ht="18.75" customHeight="1">
-      <c r="B33" s="79" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="34" ht="18.75" customHeight="1"/>
+      <c r="B33" s="89" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" ht="18.75" customHeight="1">
+      <c r="C34" s="97" t="s">
+        <v>168</v>
+      </c>
+      <c r="E34" s="96" t="s">
+        <v>169</v>
+      </c>
+    </row>
     <row r="35" ht="18.75" customHeight="1">
-      <c r="B35" s="79" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="36" ht="18.75" customHeight="1"/>
+      <c r="C35" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="E35" s="96" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" ht="18.75" customHeight="1">
+      <c r="C36" s="97" t="s">
+        <v>157</v>
+      </c>
+      <c r="E36" s="96" t="s">
+        <v>156</v>
+      </c>
+    </row>
     <row r="37" ht="18.75" customHeight="1">
-      <c r="B37" s="79" t="s">
-        <v>150</v>
+      <c r="C37" s="97" t="s">
+        <v>158</v>
+      </c>
+      <c r="E37" s="96" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="38" ht="18.75" customHeight="1">
-      <c r="B38" s="79" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="39" ht="18.75" customHeight="1"/>
+      <c r="C38" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="E38" s="96" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" ht="18.75" customHeight="1">
+      <c r="C39" s="97" t="s">
+        <v>162</v>
+      </c>
+      <c r="E39" s="96" t="s">
+        <v>163</v>
+      </c>
+    </row>
     <row r="40" ht="18.75" customHeight="1">
-      <c r="B40" s="89" t="s">
-        <v>152</v>
+      <c r="C40" s="96" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="41" ht="18.75" customHeight="1">
-      <c r="B41" s="89" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="42" ht="18.75" customHeight="1"/>
+      <c r="C41" s="96" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" ht="18.75" customHeight="1">
+      <c r="C42" s="98"/>
+    </row>
     <row r="43" ht="18.75" customHeight="1">
-      <c r="B43" s="91" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="44" ht="18.75" customHeight="1">
-      <c r="B44" s="91" t="s">
-        <v>155</v>
-      </c>
-    </row>
+      <c r="B43" s="98" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" ht="18.75" customHeight="1"/>
     <row r="45" ht="18.75" customHeight="1">
-      <c r="A45" s="88"/>
-      <c r="B45" s="88"/>
-      <c r="C45" s="88"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="88"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="88"/>
-      <c r="H45" s="88"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="88"/>
-      <c r="K45" s="88"/>
-      <c r="L45" s="88"/>
-      <c r="M45" s="88"/>
-      <c r="N45" s="88"/>
-      <c r="O45" s="88"/>
-      <c r="P45" s="88"/>
-      <c r="Q45" s="88"/>
-      <c r="R45" s="88"/>
-      <c r="S45" s="88"/>
-      <c r="T45" s="88"/>
-      <c r="U45" s="88"/>
-      <c r="V45" s="88"/>
-      <c r="W45" s="88"/>
-      <c r="X45" s="88"/>
-      <c r="Y45" s="88"/>
-      <c r="Z45" s="88"/>
-    </row>
-    <row r="46" ht="18.75" customHeight="1">
-      <c r="A46" s="88"/>
-      <c r="B46" s="92" t="s">
-        <v>156</v>
-      </c>
-      <c r="C46" s="88"/>
-      <c r="D46" s="88"/>
-      <c r="E46" s="88"/>
-      <c r="F46" s="88"/>
-      <c r="G46" s="88"/>
-      <c r="H46" s="88"/>
-      <c r="I46" s="88"/>
-      <c r="J46" s="88"/>
-      <c r="K46" s="88"/>
-      <c r="L46" s="88"/>
-      <c r="M46" s="88"/>
-      <c r="N46" s="88"/>
-      <c r="O46" s="88"/>
-      <c r="P46" s="88"/>
-      <c r="Q46" s="88"/>
-      <c r="R46" s="88"/>
-      <c r="S46" s="88"/>
-      <c r="T46" s="88"/>
-      <c r="U46" s="88"/>
-      <c r="V46" s="88"/>
-      <c r="W46" s="88"/>
-      <c r="X46" s="88"/>
-      <c r="Y46" s="88"/>
-      <c r="Z46" s="88"/>
-    </row>
+      <c r="B45" s="94" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" ht="18.75" customHeight="1"/>
     <row r="47" ht="18.75" customHeight="1">
-      <c r="A47" s="88"/>
-      <c r="B47" s="92" t="s">
-        <v>157</v>
-      </c>
-      <c r="C47" s="88"/>
-      <c r="D47" s="88"/>
-      <c r="E47" s="88"/>
-      <c r="F47" s="88"/>
-      <c r="G47" s="88"/>
-      <c r="H47" s="88"/>
-      <c r="I47" s="88"/>
-      <c r="J47" s="88"/>
-      <c r="K47" s="88"/>
-      <c r="L47" s="88"/>
-      <c r="M47" s="88"/>
-      <c r="N47" s="88"/>
-      <c r="O47" s="88"/>
-      <c r="P47" s="88"/>
-      <c r="Q47" s="88"/>
-      <c r="R47" s="88"/>
-      <c r="S47" s="88"/>
-      <c r="T47" s="88"/>
-      <c r="U47" s="88"/>
-      <c r="V47" s="88"/>
-      <c r="W47" s="88"/>
-      <c r="X47" s="88"/>
-      <c r="Y47" s="88"/>
-      <c r="Z47" s="88"/>
+      <c r="B47" s="99" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="48" ht="18.75" customHeight="1"/>
-    <row r="49" ht="18.75" customHeight="1"/>
+    <row r="49" ht="18.75" customHeight="1">
+      <c r="B49" s="89" t="s">
+        <v>173</v>
+      </c>
+    </row>
     <row r="50" ht="18.75" customHeight="1"/>
-    <row r="51" ht="18.75" customHeight="1"/>
-    <row r="52" ht="18.75" customHeight="1"/>
+    <row r="51" ht="18.75" customHeight="1">
+      <c r="B51" s="89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" ht="18.75" customHeight="1">
+      <c r="B52" s="98" t="s">
+        <v>175</v>
+      </c>
+    </row>
     <row r="53" ht="18.75" customHeight="1"/>
-    <row r="54" ht="18.75" customHeight="1"/>
-    <row r="55" ht="18.75" customHeight="1"/>
+    <row r="54" ht="18.75" customHeight="1">
+      <c r="B54" s="94" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="55" ht="18.75" customHeight="1">
+      <c r="B55" s="94" t="s">
+        <v>177</v>
+      </c>
+    </row>
     <row r="56" ht="18.75" customHeight="1"/>
-    <row r="57" ht="18.75" customHeight="1"/>
-    <row r="58" ht="18.75" customHeight="1"/>
+    <row r="57" ht="18.75" customHeight="1">
+      <c r="B57" s="94" t="s">
+        <v>178</v>
+      </c>
+      <c r="C57" s="95"/>
+      <c r="D57" s="95"/>
+    </row>
+    <row r="58" ht="18.75" customHeight="1">
+      <c r="B58" s="94" t="s">
+        <v>179</v>
+      </c>
+      <c r="C58" s="95"/>
+      <c r="D58" s="95"/>
+    </row>
     <row r="59" ht="18.75" customHeight="1"/>
-    <row r="60" ht="18.75" customHeight="1"/>
-    <row r="61" ht="18.75" customHeight="1"/>
+    <row r="60" ht="18.75" customHeight="1">
+      <c r="B60" s="98" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" ht="18.75" customHeight="1">
+      <c r="B61" s="98" t="s">
+        <v>181</v>
+      </c>
+    </row>
     <row r="62" ht="18.75" customHeight="1"/>
-    <row r="63" ht="18.75" customHeight="1"/>
-    <row r="64" ht="18.75" customHeight="1"/>
+    <row r="63" ht="18.75" customHeight="1">
+      <c r="B63" s="94" t="s">
+        <v>182</v>
+      </c>
+      <c r="C63" s="95"/>
+      <c r="D63" s="95"/>
+    </row>
+    <row r="64" ht="18.75" customHeight="1">
+      <c r="B64" s="94" t="s">
+        <v>183</v>
+      </c>
+      <c r="C64" s="95"/>
+      <c r="D64" s="95"/>
+    </row>
     <row r="65" ht="18.75" customHeight="1"/>
-    <row r="66" ht="18.75" customHeight="1"/>
-    <row r="67" ht="18.75" customHeight="1"/>
+    <row r="66" ht="18.75" customHeight="1">
+      <c r="B66" s="94" t="s">
+        <v>184</v>
+      </c>
+      <c r="C66" s="95"/>
+      <c r="D66" s="95"/>
+    </row>
+    <row r="67" ht="18.75" customHeight="1">
+      <c r="B67" s="94" t="s">
+        <v>185</v>
+      </c>
+      <c r="C67" s="95"/>
+      <c r="D67" s="95"/>
+    </row>
     <row r="68" ht="18.75" customHeight="1"/>
     <row r="69" ht="18.75" customHeight="1"/>
     <row r="70" ht="18.75" customHeight="1"/>
@@ -32663,8 +33238,24 @@
     <row r="1001" ht="18.75" customHeight="1"/>
     <row r="1002" ht="18.75" customHeight="1"/>
     <row r="1003" ht="18.75" customHeight="1"/>
+    <row r="1004" ht="18.75" customHeight="1"/>
+    <row r="1005" ht="18.75" customHeight="1"/>
+    <row r="1006" ht="18.75" customHeight="1"/>
+    <row r="1007" ht="18.75" customHeight="1"/>
+    <row r="1008" ht="18.75" customHeight="1"/>
+    <row r="1009" ht="18.75" customHeight="1"/>
+    <row r="1010" ht="18.75" customHeight="1"/>
+    <row r="1011" ht="18.75" customHeight="1"/>
+    <row r="1012" ht="18.75" customHeight="1"/>
+    <row r="1013" ht="18.75" customHeight="1"/>
+    <row r="1014" ht="18.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E2:I2"/>
@@ -32672,9 +33263,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D11:E11"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/doc/2023年下期/【修正版】2023年上期/【画面設計】週間タレント出演画面（WeekTalentSh.xlsx
+++ b/doc/2023年下期/【修正版】2023年上期/【画面設計】週間タレント出演画面（WeekTalentSh.xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="t3TD18ley+R1G0FG3FPRFISbAGeF6ErD3yYEcx4Jrdk="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="yTuW0ECNruPw3+uzTvfj7rBJUIx/C7QTJP72SVwUE4U="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="184">
   <si>
     <t>Java課題(2023上期）</t>
   </si>
@@ -88,7 +88,24 @@
 ・バリデーションチェックの追加と修正</t>
   </si>
   <si>
+    <t>・TOPリンクボタンの削除
+・画面画像の差し替え</t>
+  </si>
+  <si>
+    <t>・初期表示時のパラメータチェックの廃止
+・モードの削除</t>
+  </si>
+  <si>
     <t>1.【画面イメージ】</t>
+  </si>
+  <si>
+    <t>【初期表示】</t>
+  </si>
+  <si>
+    <t>【検索結果があった場合】</t>
+  </si>
+  <si>
+    <t>【エラーが発生時】</t>
   </si>
   <si>
     <t>2.【機能概要】</t>
@@ -159,22 +176,7 @@
     <t>初期表示時</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="游ゴシック"/>
-        <color rgb="FFFF0000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>前画面からパラメータが設定されていた場合に各パラメータに対して、バリデーションチェックを行い、</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="游ゴシック"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>検索条件部と検索ボタンのみ表示する。</t>
-    </r>
+    <t>検索条件部と検索ボタンのみ表示する。</t>
   </si>
   <si>
     <t>検索ボタン押下時</t>
@@ -230,12 +232,6 @@
     <t>ページングの最後に移動する。</t>
   </si>
   <si>
-    <t>TOPリンククリック時</t>
-  </si>
-  <si>
-    <t>リンクボタンをクリック時に、画面「メインメニュー画面」へ遷移する。</t>
-  </si>
-  <si>
     <t>4.【フォーム情報】</t>
   </si>
   <si>
@@ -272,7 +268,7 @@
         <color theme="1"/>
         <sz val="10.0"/>
       </rPr>
-      <t>初期表示に、検索ボタンを押下時に、
+      <t>検索ボタンを押下時に、
 以下のバリデーションチェックでエラーの場合、エラーメッセージを表示する。</t>
     </r>
     <r>
@@ -282,7 +278,7 @@
         <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve">
-・年月週が必須で入力されていること。
+・年月・週が必須で入力されていること。
 ・年月がYYYYMM形式であること。
 ・年月がYYYY/MM/01で有効な日付であること。
 ・週が数値であること。
@@ -308,19 +304,10 @@
     </r>
   </si>
   <si>
-    <t>（ヘッダー項目）</t>
+    <t>（検索条件）</t>
   </si>
   <si>
     <t xml:space="preserve">部品　</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>linkbutton</t>
-  </si>
-  <si>
-    <t>（検索条件）</t>
   </si>
   <si>
     <t>ー</t>
@@ -444,6 +431,9 @@
     <t>ヘッダー</t>
   </si>
   <si>
+    <t>linkbutton</t>
+  </si>
+  <si>
     <t>タレント名にリンクボタンの設定を行う。
 クリック時にキーを渡して、画面「タレント詳細画面」へ遷移する。
 ※タレントIDも保持する。</t>
@@ -560,7 +550,7 @@
     <t>最初</t>
   </si>
   <si>
-    <t>結果結果のグリッドのページングの先頭に移動する。</t>
+    <t>検索結果のグリッドのページングの先頭に移動する。</t>
   </si>
   <si>
     <t>ページングリンク</t>
@@ -572,29 +562,10 @@
     <t>最後</t>
   </si>
   <si>
-    <t>結果結果のグリッドのページングの最後に移動する。</t>
+    <t>検索結果のグリッドのページングの最後に移動する。</t>
   </si>
   <si>
     <t>1. 処理一覧</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="游ゴシック"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">検索条件部と検索ボタンのみ表示する。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="游ゴシック"/>
-        <color rgb="FFFF0000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>パラメータが存在した場合は、検索処理を実施する。</t>
-    </r>
   </si>
   <si>
     <t>検索条件の各値を取得し、パラメータとして、API「週間タレント別情報」を呼び出す。
@@ -602,10 +573,10 @@
 1件以上の場合は、ヘッダーとデータを表示する。</t>
   </si>
   <si>
-    <t>最初クリック時</t>
+    <t>タレント名リンククリック時</t>
   </si>
   <si>
-    <t>最後クリック時</t>
+    <t>出演番組（直近）リンククリック時</t>
   </si>
   <si>
     <t>2. 処理詳細</t>
@@ -692,19 +663,19 @@
     <t xml:space="preserve">　　2-2-5.【2-2-3】で取得した結果のうち、データが10件を超える場合は、最初の10件を表示させ、残りは10件ずつ別の領域に保管してページングリンクを表示させる。</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2.3 タレント名クリック時</t>
+    <t xml:space="preserve"> 2.3 タレント名リンククリック時</t>
   </si>
   <si>
     <t xml:space="preserve">　　2-3-1.タレントID、年月、週をキーとして、次画面「タレント詳細画面（TalentDetail.vue)」へ遷移する。</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2.4 出演番組（直近）クリック時</t>
+    <t xml:space="preserve"> 2.4 出演番組（直近）リンククリック時</t>
   </si>
   <si>
     <t xml:space="preserve">　　2-4-1.出演番組ID（直近）、オンエア日時（直近）、年月、週をキーとして、次画面「番組詳細画面（ProgramDetail.vue)」へ遷移する。</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2.5 最初クリック時</t>
+    <t xml:space="preserve"> 2.5 最初リンククリック時</t>
   </si>
   <si>
     <t xml:space="preserve">　　2-5-1. ページングの先頭に移動する。</t>
@@ -716,16 +687,10 @@
     <t xml:space="preserve">　　2-6-1. クリックした番号の領域に保管されている内容を10件表示させる。</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2.7 最後クリック時</t>
+    <t xml:space="preserve"> 2.7 最後リンククリック時</t>
   </si>
   <si>
     <t xml:space="preserve">　　2-7-1. ページングの最後に移動する。</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.8 TOPリンククリック時</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　2-8-1. リンクボタンをクリック時に、画面「メインメニュー画面」へ遷移する。</t>
   </si>
 </sst>
 </file>
@@ -735,7 +700,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="28">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -801,6 +766,23 @@
       <name val="游ゴシック"/>
     </font>
     <font>
+      <strike/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+    </font>
+    <font>
+      <strike/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -820,10 +802,25 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <strike/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <strike/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10.0"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -835,7 +832,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
@@ -1010,7 +1011,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="104">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1050,8 +1051,8 @@
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1101,6 +1102,9 @@
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -1134,10 +1138,16 @@
     <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1173,29 +1183,11 @@
     <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
@@ -1206,11 +1198,14 @@
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1221,31 +1216,31 @@
     <xf borderId="8" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="5" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="5" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="5" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="5" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1257,14 +1252,20 @@
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1278,7 +1279,7 @@
     <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="4" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -1293,23 +1294,35 @@
     <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1328,11 +1341,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="10896600" cy="5705475"/>
+    <xdr:ext cx="8763000" cy="3267075"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
@@ -1341,9 +1354,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="152400" y="152400"/>
-          <a:ext cx="9448801" cy="4939612"/>
+          <a:ext cx="10667997" cy="3964734"/>
           <a:chOff x="152400" y="152400"/>
-          <a:chExt cx="9448801" cy="4939612"/>
+          <a:chExt cx="10667997" cy="3964734"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
@@ -1362,7 +1375,121 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="152400" y="152400"/>
-            <a:ext cx="9448801" cy="4939612"/>
+            <a:ext cx="10667997" cy="3964734"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9944100" cy="6134100"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="10667999" cy="6549238"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="10667999" cy="6549238"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="Shape 4"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId2">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="10667999" cy="6549238"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8763000" cy="2390775"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="10667999" cy="2916138"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="10667999" cy="2916138"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="Shape 5"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId3">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="10667999" cy="2916138"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1659,7 +1786,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="13">
-        <v>45322.0</v>
+        <v>45333.0</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>9</v>
@@ -1753,7 +1880,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" ht="132.0" customHeight="1">
+    <row r="9" ht="139.5" customHeight="1">
       <c r="B9" s="22">
         <v>5.0</v>
       </c>
@@ -1767,16 +1894,33 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" ht="18.75" customHeight="1">
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="E11" s="16"/>
+    <row r="10" ht="36.0" customHeight="1">
+      <c r="B10" s="19">
+        <v>6.0</v>
+      </c>
+      <c r="C10" s="13">
+        <v>45332.0</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" ht="30.0" customHeight="1">
+      <c r="B11" s="22">
+        <v>7.0</v>
+      </c>
+      <c r="C11" s="13">
+        <v>45333.0</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" ht="18.75" customHeight="1">
       <c r="B12" s="16"/>
@@ -2954,7 +3098,7 @@
         <v>9</v>
       </c>
       <c r="L2" s="13">
-        <v>45322.0</v>
+        <v>45333.0</v>
       </c>
       <c r="M2" s="14" t="s">
         <v>9</v>
@@ -3001,11 +3145,9 @@
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="6"/>
-      <c r="B4" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -3031,9 +3173,11 @@
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -3061,14 +3205,18 @@
     </row>
     <row r="6" ht="16.5" customHeight="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
+      <c r="B6" s="30" t="s">
+        <v>23</v>
+      </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="H6" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="30"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
@@ -3565,7 +3713,9 @@
     </row>
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
+      <c r="B24" s="30" t="s">
+        <v>25</v>
+      </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -3817,9 +3967,7 @@
     </row>
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="6"/>
-      <c r="B33" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -3847,15 +3995,13 @@
     </row>
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="6"/>
-      <c r="B34" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="3"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
@@ -3877,10 +4023,15 @@
     </row>
     <row r="35" ht="16.5" customHeight="1">
       <c r="A35" s="6"/>
-      <c r="B35" s="31"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
@@ -3900,10 +4051,15 @@
     </row>
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="6"/>
-      <c r="B36" s="31"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
@@ -3923,15 +4079,17 @@
     </row>
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
+      <c r="B37" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
@@ -3951,13 +4109,15 @@
     </row>
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
+      <c r="B38" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="3"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
@@ -3978,556 +4138,534 @@
       <c r="Z38" s="6"/>
     </row>
     <row r="39" ht="16.5" customHeight="1">
-      <c r="A39" s="33"/>
-      <c r="B39" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="32"/>
       <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="33"/>
-      <c r="T39" s="33"/>
-      <c r="U39" s="33"/>
-      <c r="V39" s="33"/>
-      <c r="W39" s="33"/>
-      <c r="X39" s="33"/>
-      <c r="Y39" s="33"/>
-      <c r="Z39" s="33"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
     </row>
     <row r="40" ht="16.5" customHeight="1">
-      <c r="A40" s="36"/>
-      <c r="B40" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="32"/>
       <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="33"/>
-      <c r="O40" s="33"/>
-      <c r="P40" s="33"/>
-      <c r="Q40" s="33"/>
-      <c r="R40" s="33"/>
-      <c r="S40" s="33"/>
-      <c r="T40" s="33"/>
-      <c r="U40" s="33"/>
-      <c r="V40" s="33"/>
-      <c r="W40" s="33"/>
-      <c r="X40" s="33"/>
-      <c r="Y40" s="33"/>
-      <c r="Z40" s="33"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
     </row>
     <row r="41" ht="16.5" customHeight="1">
-      <c r="A41" s="36"/>
-      <c r="B41" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="38" t="s">
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c r="A43" s="34"/>
+      <c r="B43" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="38" t="s">
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="34"/>
+      <c r="S43" s="34"/>
+      <c r="T43" s="34"/>
+      <c r="U43" s="34"/>
+      <c r="V43" s="34"/>
+      <c r="W43" s="34"/>
+      <c r="X43" s="34"/>
+      <c r="Y43" s="34"/>
+      <c r="Z43" s="34"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c r="A44" s="37"/>
+      <c r="B44" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="33"/>
-      <c r="O41" s="33"/>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="33"/>
-      <c r="S41" s="33"/>
-      <c r="T41" s="33"/>
-      <c r="U41" s="33"/>
-      <c r="V41" s="33"/>
-      <c r="W41" s="33"/>
-      <c r="X41" s="33"/>
-      <c r="Y41" s="33"/>
-      <c r="Z41" s="33"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c r="A42" s="36"/>
-      <c r="B42" s="38" t="s">
+      <c r="C44" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="38" t="s">
+      <c r="D44" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="34"/>
+      <c r="S44" s="34"/>
+      <c r="T44" s="34"/>
+      <c r="U44" s="34"/>
+      <c r="V44" s="34"/>
+      <c r="W44" s="34"/>
+      <c r="X44" s="34"/>
+      <c r="Y44" s="34"/>
+      <c r="Z44" s="34"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c r="A45" s="37"/>
+      <c r="B45" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
+      <c r="S45" s="34"/>
+      <c r="T45" s="34"/>
+      <c r="U45" s="34"/>
+      <c r="V45" s="34"/>
+      <c r="W45" s="34"/>
+      <c r="X45" s="34"/>
+      <c r="Y45" s="34"/>
+      <c r="Z45" s="34"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c r="A46" s="37"/>
+      <c r="B46" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="34"/>
+      <c r="S46" s="34"/>
+      <c r="T46" s="34"/>
+      <c r="U46" s="34"/>
+      <c r="V46" s="34"/>
+      <c r="W46" s="34"/>
+      <c r="X46" s="34"/>
+      <c r="Y46" s="34"/>
+      <c r="Z46" s="34"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c r="A47" s="37"/>
+      <c r="B47" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="34"/>
+      <c r="N47" s="34"/>
+      <c r="O47" s="34"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="34"/>
+      <c r="S47" s="34"/>
+      <c r="T47" s="34"/>
+      <c r="U47" s="34"/>
+      <c r="V47" s="34"/>
+      <c r="W47" s="34"/>
+      <c r="X47" s="34"/>
+      <c r="Y47" s="34"/>
+      <c r="Z47" s="34"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c r="A48" s="42"/>
+      <c r="B48" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="45"/>
+      <c r="L48" s="45"/>
+      <c r="M48" s="45"/>
+      <c r="N48" s="45"/>
+      <c r="O48" s="45"/>
+      <c r="P48" s="45"/>
+      <c r="Q48" s="45"/>
+      <c r="R48" s="45"/>
+      <c r="S48" s="45"/>
+      <c r="T48" s="45"/>
+      <c r="U48" s="45"/>
+      <c r="V48" s="45"/>
+      <c r="W48" s="45"/>
+      <c r="X48" s="45"/>
+      <c r="Y48" s="45"/>
+      <c r="Z48" s="45"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c r="A49" s="34"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="34"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="34"/>
+      <c r="R49" s="34"/>
+      <c r="S49" s="34"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="34"/>
+      <c r="V49" s="34"/>
+      <c r="W49" s="34"/>
+      <c r="X49" s="34"/>
+      <c r="Y49" s="34"/>
+      <c r="Z49" s="34"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c r="A50" s="34"/>
+      <c r="B50" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
-      <c r="M42" s="33"/>
-      <c r="N42" s="33"/>
-      <c r="O42" s="33"/>
-      <c r="P42" s="33"/>
-      <c r="Q42" s="33"/>
-      <c r="R42" s="33"/>
-      <c r="S42" s="33"/>
-      <c r="T42" s="33"/>
-      <c r="U42" s="33"/>
-      <c r="V42" s="33"/>
-      <c r="W42" s="33"/>
-      <c r="X42" s="33"/>
-      <c r="Y42" s="33"/>
-      <c r="Z42" s="33"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c r="A43" s="36"/>
-      <c r="B43" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="33"/>
-      <c r="N43" s="33"/>
-      <c r="O43" s="33"/>
-      <c r="P43" s="33"/>
-      <c r="Q43" s="33"/>
-      <c r="R43" s="33"/>
-      <c r="S43" s="33"/>
-      <c r="T43" s="33"/>
-      <c r="U43" s="33"/>
-      <c r="V43" s="33"/>
-      <c r="W43" s="33"/>
-      <c r="X43" s="33"/>
-      <c r="Y43" s="33"/>
-      <c r="Z43" s="33"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c r="A44" s="36"/>
-      <c r="B44" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="D44" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="33"/>
-      <c r="M44" s="33"/>
-      <c r="N44" s="33"/>
-      <c r="O44" s="33"/>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="33"/>
-      <c r="R44" s="33"/>
-      <c r="S44" s="33"/>
-      <c r="T44" s="33"/>
-      <c r="U44" s="33"/>
-      <c r="V44" s="33"/>
-      <c r="W44" s="33"/>
-      <c r="X44" s="33"/>
-      <c r="Y44" s="33"/>
-      <c r="Z44" s="33"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c r="A45" s="33"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="33"/>
-      <c r="O45" s="33"/>
-      <c r="P45" s="33"/>
-      <c r="Q45" s="33"/>
-      <c r="R45" s="33"/>
-      <c r="S45" s="33"/>
-      <c r="T45" s="33"/>
-      <c r="U45" s="33"/>
-      <c r="V45" s="33"/>
-      <c r="W45" s="33"/>
-      <c r="X45" s="33"/>
-      <c r="Y45" s="33"/>
-      <c r="Z45" s="33"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c r="A46" s="33"/>
-      <c r="B46" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="33"/>
-      <c r="N46" s="33"/>
-      <c r="O46" s="33"/>
-      <c r="P46" s="33"/>
-      <c r="Q46" s="33"/>
-      <c r="R46" s="33"/>
-      <c r="S46" s="33"/>
-      <c r="T46" s="33"/>
-      <c r="U46" s="33"/>
-      <c r="V46" s="33"/>
-      <c r="W46" s="33"/>
-      <c r="X46" s="33"/>
-      <c r="Y46" s="33"/>
-      <c r="Z46" s="33"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c r="A47" s="36"/>
-      <c r="B47" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="D47" s="28"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="33"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="33"/>
-      <c r="N47" s="33"/>
-      <c r="O47" s="33"/>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="33"/>
-      <c r="R47" s="33"/>
-      <c r="S47" s="33"/>
-      <c r="T47" s="33"/>
-      <c r="U47" s="33"/>
-      <c r="V47" s="33"/>
-      <c r="W47" s="33"/>
-      <c r="X47" s="33"/>
-      <c r="Y47" s="33"/>
-      <c r="Z47" s="33"/>
-    </row>
-    <row r="48" ht="50.25" customHeight="1">
-      <c r="A48" s="36"/>
-      <c r="B48" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C48" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D48" s="28"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="33"/>
-      <c r="N48" s="33"/>
-      <c r="O48" s="33"/>
-      <c r="P48" s="33"/>
-      <c r="Q48" s="33"/>
-      <c r="R48" s="33"/>
-      <c r="S48" s="33"/>
-      <c r="T48" s="33"/>
-      <c r="U48" s="33"/>
-      <c r="V48" s="33"/>
-      <c r="W48" s="33"/>
-      <c r="X48" s="33"/>
-      <c r="Y48" s="33"/>
-      <c r="Z48" s="33"/>
-    </row>
-    <row r="49" ht="75.75" customHeight="1">
-      <c r="A49" s="36"/>
-      <c r="B49" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" s="46" t="s">
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="34"/>
+      <c r="R50" s="34"/>
+      <c r="S50" s="34"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="34"/>
+      <c r="V50" s="34"/>
+      <c r="W50" s="34"/>
+      <c r="X50" s="34"/>
+      <c r="Y50" s="34"/>
+      <c r="Z50" s="34"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c r="A51" s="37"/>
+      <c r="B51" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D49" s="28"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="33"/>
-      <c r="M49" s="33"/>
-      <c r="N49" s="33"/>
-      <c r="O49" s="33"/>
-      <c r="P49" s="33"/>
-      <c r="Q49" s="33"/>
-      <c r="R49" s="33"/>
-      <c r="S49" s="33"/>
-      <c r="T49" s="33"/>
-      <c r="U49" s="33"/>
-      <c r="V49" s="33"/>
-      <c r="W49" s="33"/>
-      <c r="X49" s="33"/>
-      <c r="Y49" s="33"/>
-      <c r="Z49" s="33"/>
-    </row>
-    <row r="50" ht="48.0" customHeight="1">
-      <c r="A50" s="36"/>
-      <c r="B50" s="12" t="s">
+      <c r="C51" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="46" t="s">
+      <c r="D51" s="28"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="34"/>
+      <c r="N51" s="34"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="34"/>
+      <c r="R51" s="34"/>
+      <c r="S51" s="34"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="34"/>
+      <c r="V51" s="34"/>
+      <c r="W51" s="34"/>
+      <c r="X51" s="34"/>
+      <c r="Y51" s="34"/>
+      <c r="Z51" s="34"/>
+    </row>
+    <row r="52" ht="27.75" customHeight="1">
+      <c r="A52" s="37"/>
+      <c r="B52" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="33"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="33"/>
-      <c r="N50" s="33"/>
-      <c r="O50" s="33"/>
-      <c r="P50" s="33"/>
-      <c r="Q50" s="33"/>
-      <c r="R50" s="33"/>
-      <c r="S50" s="33"/>
-      <c r="T50" s="33"/>
-      <c r="U50" s="33"/>
-      <c r="V50" s="33"/>
-      <c r="W50" s="33"/>
-      <c r="X50" s="33"/>
-      <c r="Y50" s="33"/>
-      <c r="Z50" s="33"/>
-    </row>
-    <row r="51" ht="48.0" customHeight="1">
-      <c r="A51" s="6"/>
-      <c r="B51" s="47" t="s">
+      <c r="C52" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="48" t="s">
+      <c r="D52" s="28"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="34"/>
+      <c r="N52" s="34"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="34"/>
+      <c r="R52" s="34"/>
+      <c r="S52" s="34"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="34"/>
+      <c r="V52" s="34"/>
+      <c r="W52" s="34"/>
+      <c r="X52" s="34"/>
+      <c r="Y52" s="34"/>
+      <c r="Z52" s="34"/>
+    </row>
+    <row r="53" ht="75.75" customHeight="1">
+      <c r="A53" s="37"/>
+      <c r="B53" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D51" s="28"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
-      <c r="V51" s="6"/>
-      <c r="W51" s="6"/>
-      <c r="X51" s="6"/>
-      <c r="Y51" s="6"/>
-      <c r="Z51" s="6"/>
-    </row>
-    <row r="52" ht="38.25" customHeight="1">
-      <c r="A52" s="6"/>
-      <c r="B52" s="47" t="s">
+      <c r="C53" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="48" t="s">
+      <c r="D53" s="28"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="34"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="34"/>
+      <c r="N53" s="34"/>
+      <c r="O53" s="34"/>
+      <c r="P53" s="34"/>
+      <c r="Q53" s="34"/>
+      <c r="R53" s="34"/>
+      <c r="S53" s="34"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="34"/>
+      <c r="V53" s="34"/>
+      <c r="W53" s="34"/>
+      <c r="X53" s="34"/>
+      <c r="Y53" s="34"/>
+      <c r="Z53" s="34"/>
+    </row>
+    <row r="54" ht="48.0" customHeight="1">
+      <c r="A54" s="37"/>
+      <c r="B54" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D52" s="28"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
-      <c r="V52" s="6"/>
-      <c r="W52" s="6"/>
-      <c r="X52" s="6"/>
-      <c r="Y52" s="6"/>
-      <c r="Z52" s="6"/>
-    </row>
-    <row r="53" ht="38.25" customHeight="1">
-      <c r="A53" s="6"/>
-      <c r="B53" s="49" t="s">
+      <c r="C54" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="50" t="s">
+      <c r="D54" s="28"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="34"/>
+      <c r="N54" s="34"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="34"/>
+      <c r="R54" s="34"/>
+      <c r="S54" s="34"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="34"/>
+      <c r="V54" s="34"/>
+      <c r="W54" s="34"/>
+      <c r="X54" s="34"/>
+      <c r="Y54" s="34"/>
+      <c r="Z54" s="34"/>
+    </row>
+    <row r="55" ht="48.0" customHeight="1">
+      <c r="A55" s="6"/>
+      <c r="B55" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="6"/>
-      <c r="S53" s="6"/>
-      <c r="T53" s="6"/>
-      <c r="U53" s="6"/>
-      <c r="V53" s="6"/>
-      <c r="W53" s="6"/>
-      <c r="X53" s="6"/>
-      <c r="Y53" s="6"/>
-      <c r="Z53" s="6"/>
-    </row>
-    <row r="54" ht="38.25" customHeight="1">
-      <c r="A54" s="6"/>
-      <c r="B54" s="47" t="s">
+      <c r="C55" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C54" s="48" t="s">
+      <c r="D55" s="28"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="6"/>
+    </row>
+    <row r="56" ht="38.25" customHeight="1">
+      <c r="A56" s="6"/>
+      <c r="B56" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="28"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="6"/>
-      <c r="S54" s="6"/>
-      <c r="T54" s="6"/>
-      <c r="U54" s="6"/>
-      <c r="V54" s="6"/>
-      <c r="W54" s="6"/>
-      <c r="X54" s="6"/>
-      <c r="Y54" s="6"/>
-      <c r="Z54" s="6"/>
-    </row>
-    <row r="55" ht="43.5" customHeight="1">
-      <c r="A55" s="36"/>
-      <c r="B55" s="41" t="s">
+      <c r="C56" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" s="28"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="33"/>
-      <c r="N55" s="33"/>
-      <c r="O55" s="33"/>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="33"/>
-      <c r="R55" s="33"/>
-      <c r="S55" s="33"/>
-      <c r="T55" s="33"/>
-      <c r="U55" s="33"/>
-      <c r="V55" s="33"/>
-      <c r="W55" s="33"/>
-      <c r="X55" s="33"/>
-      <c r="Y55" s="33"/>
-      <c r="Z55" s="33"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
+      <c r="D56" s="28"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
@@ -4551,18 +4689,18 @@
       <c r="Y56" s="6"/>
       <c r="Z56" s="6"/>
     </row>
-    <row r="57" ht="16.5" customHeight="1">
+    <row r="57" ht="38.25" customHeight="1">
       <c r="A57" s="6"/>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
+      <c r="D57" s="28"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
-      <c r="G57" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
@@ -4583,18 +4721,18 @@
       <c r="Y57" s="6"/>
       <c r="Z57" s="6"/>
     </row>
-    <row r="58" ht="16.5" customHeight="1">
+    <row r="58" ht="38.25" customHeight="1">
       <c r="A58" s="6"/>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
+      <c r="D58" s="28"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
-      <c r="G58" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
@@ -4617,32 +4755,16 @@
     </row>
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="6"/>
-      <c r="B59" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="C59" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="D59" s="51" t="s">
-        <v>58</v>
-      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
-      <c r="G59" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="H59" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="I59" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="J59" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="K59" s="51" t="s">
-        <v>58</v>
-      </c>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
@@ -4659,24 +4781,22 @@
       <c r="Y59" s="6"/>
       <c r="Z59" s="6"/>
     </row>
-    <row r="60" ht="135.75" customHeight="1">
+    <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="6"/>
-      <c r="B60" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D60" s="52" t="s">
-        <v>63</v>
-      </c>
+      <c r="B60" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="53"/>
-      <c r="K60" s="53"/>
+      <c r="G60" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
@@ -4695,12 +4815,16 @@
     </row>
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
+      <c r="B61" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
+      <c r="G61" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
@@ -4724,17 +4848,31 @@
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="6"/>
       <c r="B62" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="C62" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" s="54" t="s">
+        <v>61</v>
+      </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
+      <c r="G62" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="H62" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="I62" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="J62" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="K62" s="54" t="s">
+        <v>61</v>
+      </c>
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
@@ -4751,34 +4889,24 @@
       <c r="Y62" s="6"/>
       <c r="Z62" s="6"/>
     </row>
-    <row r="63" ht="16.5" customHeight="1">
+    <row r="63" ht="135.75" customHeight="1">
       <c r="A63" s="6"/>
-      <c r="B63" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="C63" s="51" t="s">
+      <c r="B63" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D63" s="51" t="s">
-        <v>58</v>
+      <c r="D63" s="55" t="s">
+        <v>66</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="H63" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="I63" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="J63" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="K63" s="51" t="s">
-        <v>58</v>
-      </c>
+      <c r="G63" s="56"/>
+      <c r="H63" s="56"/>
+      <c r="I63" s="56"/>
+      <c r="J63" s="56"/>
+      <c r="K63" s="56"/>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
@@ -4797,22 +4925,16 @@
     </row>
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="6"/>
-      <c r="B64" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="C64" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="D64" s="57" t="s">
-        <v>52</v>
-      </c>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
-      <c r="G64" s="58"/>
-      <c r="H64" s="58"/>
-      <c r="I64" s="58"/>
-      <c r="J64" s="58"/>
-      <c r="K64" s="58"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
@@ -4831,16 +4953,16 @@
     </row>
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="6"/>
-      <c r="B65" s="59"/>
-      <c r="C65" s="60"/>
-      <c r="D65" s="60"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="60"/>
-      <c r="I65" s="60"/>
-      <c r="J65" s="60"/>
-      <c r="K65" s="60"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
@@ -4859,12 +4981,16 @@
     </row>
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
+      <c r="B66" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
+      <c r="G66" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
@@ -4887,20 +5013,32 @@
     </row>
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="6"/>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C67" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
+      <c r="D67" s="54" t="s">
+        <v>61</v>
+      </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
-      <c r="G67" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
+      <c r="G67" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="H67" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="I67" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="J67" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="K67" s="54" t="s">
+        <v>61</v>
+      </c>
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
@@ -4919,32 +5057,22 @@
     </row>
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="6"/>
-      <c r="B68" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="C68" s="51" t="s">
+      <c r="B68" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="C68" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D68" s="51" t="s">
-        <v>58</v>
+      <c r="D68" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="H68" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="I68" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="J68" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="K68" s="51" t="s">
-        <v>58</v>
-      </c>
+      <c r="G68" s="56"/>
+      <c r="H68" s="56"/>
+      <c r="I68" s="56"/>
+      <c r="J68" s="56"/>
+      <c r="K68" s="56"/>
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
@@ -4963,22 +5091,32 @@
     </row>
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="6"/>
-      <c r="B69" s="61" t="s">
-        <v>27</v>
+      <c r="B69" s="58" t="s">
+        <v>70</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
-      <c r="G69" s="53"/>
-      <c r="H69" s="53"/>
-      <c r="I69" s="53"/>
-      <c r="J69" s="53"/>
-      <c r="K69" s="53"/>
+      <c r="G69" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H69" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="I69" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J69" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K69" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
@@ -4997,32 +5135,22 @@
     </row>
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="6"/>
-      <c r="B70" s="59" t="s">
-        <v>70</v>
+      <c r="B70" s="57" t="s">
+        <v>35</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
-      <c r="G70" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H70" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="I70" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="J70" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="K70" s="12" t="s">
-        <v>76</v>
-      </c>
+      <c r="G70" s="56"/>
+      <c r="H70" s="56"/>
+      <c r="I70" s="56"/>
+      <c r="J70" s="56"/>
+      <c r="K70" s="56"/>
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
@@ -5041,22 +5169,32 @@
     </row>
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="6"/>
-      <c r="B71" s="61" t="s">
-        <v>30</v>
+      <c r="B71" s="58" t="s">
+        <v>70</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
-      <c r="G71" s="53"/>
-      <c r="H71" s="53"/>
-      <c r="I71" s="53"/>
-      <c r="J71" s="53"/>
-      <c r="K71" s="53"/>
+      <c r="G71" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H71" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="I71" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J71" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K71" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
@@ -5075,32 +5213,22 @@
     </row>
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="6"/>
-      <c r="B72" s="59" t="s">
-        <v>70</v>
+      <c r="B72" s="60" t="s">
+        <v>37</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
-      <c r="G72" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H72" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="I72" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="J72" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K72" s="12" t="s">
-        <v>76</v>
-      </c>
+      <c r="G72" s="56"/>
+      <c r="H72" s="56"/>
+      <c r="I72" s="56"/>
+      <c r="J72" s="56"/>
+      <c r="K72" s="56"/>
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
@@ -5117,24 +5245,34 @@
       <c r="Y72" s="6"/>
       <c r="Z72" s="6"/>
     </row>
-    <row r="73" ht="16.5" customHeight="1">
+    <row r="73" ht="43.5" customHeight="1">
       <c r="A73" s="6"/>
-      <c r="B73" s="63" t="s">
-        <v>32</v>
+      <c r="B73" s="61" t="s">
+        <v>78</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
-      <c r="G73" s="53"/>
-      <c r="H73" s="53"/>
-      <c r="I73" s="53"/>
-      <c r="J73" s="53"/>
-      <c r="K73" s="53"/>
+      <c r="G73" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="H73" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="I73" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="J73" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="K73" s="52" t="s">
+        <v>84</v>
+      </c>
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
@@ -5151,34 +5289,18 @@
       <c r="Y73" s="6"/>
       <c r="Z73" s="6"/>
     </row>
-    <row r="74" ht="43.5" customHeight="1">
+    <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="6"/>
-      <c r="B74" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>79</v>
-      </c>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
-      <c r="G74" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="H74" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="I74" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="J74" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="K74" s="49" t="s">
-        <v>84</v>
-      </c>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
@@ -5225,16 +5347,32 @@
     </row>
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
+      <c r="B76" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C76" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" s="54" t="s">
+        <v>61</v>
+      </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
+      <c r="G76" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="H76" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="I76" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="J76" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="K76" s="54" t="s">
+        <v>61</v>
+      </c>
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
@@ -5251,34 +5389,24 @@
       <c r="Y76" s="6"/>
       <c r="Z76" s="6"/>
     </row>
-    <row r="77" ht="16.5" customHeight="1">
+    <row r="77" ht="34.5" customHeight="1">
       <c r="A77" s="6"/>
-      <c r="B77" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="C77" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="D77" s="51" t="s">
-        <v>58</v>
+      <c r="B77" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D77" s="52" t="s">
+        <v>87</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
-      <c r="G77" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="H77" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="I77" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="J77" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="K77" s="51" t="s">
-        <v>58</v>
-      </c>
+      <c r="G77" s="56"/>
+      <c r="H77" s="56"/>
+      <c r="I77" s="56"/>
+      <c r="J77" s="56"/>
+      <c r="K77" s="56"/>
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
@@ -5295,110 +5423,110 @@
       <c r="Y77" s="6"/>
       <c r="Z77" s="6"/>
     </row>
-    <row r="78" ht="34.5" customHeight="1">
-      <c r="A78" s="6"/>
-      <c r="B78" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D78" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="53"/>
-      <c r="H78" s="53"/>
-      <c r="I78" s="53"/>
-      <c r="J78" s="53"/>
-      <c r="K78" s="53"/>
-      <c r="L78" s="6"/>
-      <c r="M78" s="6"/>
-      <c r="N78" s="6"/>
-      <c r="O78" s="6"/>
-      <c r="P78" s="6"/>
-      <c r="Q78" s="6"/>
-      <c r="R78" s="6"/>
-      <c r="S78" s="6"/>
-      <c r="T78" s="6"/>
-      <c r="U78" s="6"/>
-      <c r="V78" s="6"/>
-      <c r="W78" s="6"/>
-      <c r="X78" s="6"/>
-      <c r="Y78" s="6"/>
-      <c r="Z78" s="6"/>
-    </row>
-    <row r="79" ht="43.5" customHeight="1">
-      <c r="A79" s="36"/>
-      <c r="B79" s="65" t="s">
+    <row r="78" ht="43.5" customHeight="1">
+      <c r="A78" s="37"/>
+      <c r="B78" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="C79" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="D79" s="41" t="s">
+      <c r="C78" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="D78" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="E79" s="33"/>
-      <c r="F79" s="36"/>
-      <c r="G79" s="67" t="s">
+      <c r="E78" s="34"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="H79" s="68" t="s">
+      <c r="H78" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="I79" s="68" t="s">
+      <c r="I78" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="J79" s="68" t="s">
+      <c r="J78" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="K79" s="69"/>
-      <c r="L79" s="33"/>
-      <c r="M79" s="33"/>
-      <c r="N79" s="33"/>
-      <c r="O79" s="33"/>
-      <c r="P79" s="33"/>
-      <c r="Q79" s="33"/>
-      <c r="R79" s="33"/>
-      <c r="S79" s="33"/>
-      <c r="T79" s="33"/>
-      <c r="U79" s="33"/>
-      <c r="V79" s="33"/>
-      <c r="W79" s="33"/>
-      <c r="X79" s="33"/>
-      <c r="Y79" s="33"/>
-      <c r="Z79" s="33"/>
-    </row>
-    <row r="80" ht="46.5" customHeight="1">
+      <c r="K78" s="67"/>
+      <c r="L78" s="34"/>
+      <c r="M78" s="34"/>
+      <c r="N78" s="34"/>
+      <c r="O78" s="34"/>
+      <c r="P78" s="34"/>
+      <c r="Q78" s="34"/>
+      <c r="R78" s="34"/>
+      <c r="S78" s="34"/>
+      <c r="T78" s="34"/>
+      <c r="U78" s="34"/>
+      <c r="V78" s="34"/>
+      <c r="W78" s="34"/>
+      <c r="X78" s="34"/>
+      <c r="Y78" s="34"/>
+      <c r="Z78" s="34"/>
+    </row>
+    <row r="79" ht="46.5" customHeight="1">
+      <c r="A79" s="6"/>
+      <c r="B79" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="C79" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="D79" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="H79" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="I79" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="J79" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="K79" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
+      <c r="T79" s="6"/>
+      <c r="U79" s="6"/>
+      <c r="V79" s="6"/>
+      <c r="W79" s="6"/>
+      <c r="X79" s="6"/>
+      <c r="Y79" s="6"/>
+      <c r="Z79" s="6"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="6"/>
-      <c r="B80" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="C80" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="D80" s="70" t="s">
-        <v>94</v>
+      <c r="B80" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D80" s="73" t="s">
+        <v>69</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
-      <c r="G80" s="71" t="s">
-        <v>95</v>
-      </c>
-      <c r="H80" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="I80" s="73" t="s">
-        <v>97</v>
-      </c>
-      <c r="J80" s="73" t="s">
-        <v>98</v>
-      </c>
-      <c r="K80" s="74" t="s">
-        <v>99</v>
-      </c>
+      <c r="G80" s="74"/>
+      <c r="H80" s="74"/>
+      <c r="I80" s="74"/>
+      <c r="J80" s="74"/>
+      <c r="K80" s="74"/>
       <c r="L80" s="6"/>
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
@@ -5415,24 +5543,34 @@
       <c r="Y80" s="6"/>
       <c r="Z80" s="6"/>
     </row>
-    <row r="81" ht="16.5" customHeight="1">
+    <row r="81" ht="48.0" customHeight="1">
       <c r="A81" s="6"/>
-      <c r="B81" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>62</v>
+      <c r="B81" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="C81" s="63" t="s">
+        <v>65</v>
       </c>
       <c r="D81" s="75" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
-      <c r="G81" s="76"/>
-      <c r="H81" s="76"/>
-      <c r="I81" s="76"/>
-      <c r="J81" s="76"/>
-      <c r="K81" s="76"/>
+      <c r="G81" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="H81" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="I81" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="J81" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="K81" s="72" t="s">
+        <v>104</v>
+      </c>
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
@@ -5449,34 +5587,18 @@
       <c r="Y81" s="6"/>
       <c r="Z81" s="6"/>
     </row>
-    <row r="82" ht="48.0" customHeight="1">
+    <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="6"/>
-      <c r="B82" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C82" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="D82" s="77" t="s">
-        <v>102</v>
-      </c>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
-      <c r="G82" s="71" t="s">
-        <v>95</v>
-      </c>
-      <c r="H82" s="72" t="s">
-        <v>103</v>
-      </c>
-      <c r="I82" s="73" t="s">
-        <v>97</v>
-      </c>
-      <c r="J82" s="73" t="s">
-        <v>98</v>
-      </c>
-      <c r="K82" s="74" t="s">
-        <v>104</v>
-      </c>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
       <c r="N82" s="6"/>
@@ -5495,12 +5617,16 @@
     </row>
     <row r="83" ht="16.5" customHeight="1">
       <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
+      <c r="B83" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
+      <c r="G83" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
@@ -5523,20 +5649,32 @@
     </row>
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="6"/>
-      <c r="B84" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
+      <c r="B84" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C84" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" s="54" t="s">
+        <v>61</v>
+      </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
-      <c r="G84" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
+      <c r="G84" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="H84" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="I84" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="J84" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="K84" s="54" t="s">
+        <v>61</v>
+      </c>
       <c r="L84" s="6"/>
       <c r="M84" s="6"/>
       <c r="N84" s="6"/>
@@ -5555,32 +5693,22 @@
     </row>
     <row r="85" ht="16.5" customHeight="1">
       <c r="A85" s="6"/>
-      <c r="B85" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="C85" s="51" t="s">
+      <c r="B85" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="C85" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D85" s="51" t="s">
-        <v>58</v>
+      <c r="D85" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
-      <c r="G85" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="H85" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="I85" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="J85" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="K85" s="51" t="s">
-        <v>58</v>
-      </c>
+      <c r="G85" s="76"/>
+      <c r="H85" s="76"/>
+      <c r="I85" s="76"/>
+      <c r="J85" s="76"/>
+      <c r="K85" s="76"/>
       <c r="L85" s="6"/>
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
@@ -5597,24 +5725,32 @@
       <c r="Y85" s="6"/>
       <c r="Z85" s="6"/>
     </row>
-    <row r="86" ht="16.5" customHeight="1">
+    <row r="86" ht="49.5" customHeight="1">
       <c r="A86" s="6"/>
-      <c r="B86" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="C86" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D86" s="12" t="s">
-        <v>106</v>
+      <c r="B86" s="77"/>
+      <c r="C86" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="D86" s="79" t="s">
+        <v>108</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
-      <c r="G86" s="78"/>
-      <c r="H86" s="78"/>
-      <c r="I86" s="78"/>
-      <c r="J86" s="78"/>
-      <c r="K86" s="78"/>
+      <c r="G86" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="H86" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="I86" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="J86" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="K86" s="81" t="s">
+        <v>111</v>
+      </c>
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
       <c r="N86" s="6"/>
@@ -5631,32 +5767,26 @@
       <c r="Y86" s="6"/>
       <c r="Z86" s="6"/>
     </row>
-    <row r="87" ht="49.5" customHeight="1">
+    <row r="87" ht="16.5" customHeight="1">
       <c r="A87" s="6"/>
-      <c r="B87" s="79"/>
-      <c r="C87" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="D87" s="81" t="s">
-        <v>107</v>
-      </c>
+      <c r="B87" s="61"/>
+      <c r="C87" s="82"/>
+      <c r="D87" s="82"/>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
-      <c r="G87" s="82" t="s">
-        <v>108</v>
-      </c>
-      <c r="H87" s="82" t="s">
-        <v>109</v>
-      </c>
-      <c r="I87" s="82" t="s">
-        <v>82</v>
-      </c>
-      <c r="J87" s="82" t="s">
-        <v>83</v>
-      </c>
-      <c r="K87" s="83" t="s">
-        <v>110</v>
-      </c>
+      <c r="G87" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="H87" s="80" t="s">
+        <v>112</v>
+      </c>
+      <c r="I87" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="J87" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="K87" s="82"/>
       <c r="L87" s="6"/>
       <c r="M87" s="6"/>
       <c r="N87" s="6"/>
@@ -5675,24 +5805,22 @@
     </row>
     <row r="88" ht="16.5" customHeight="1">
       <c r="A88" s="6"/>
-      <c r="B88" s="64"/>
-      <c r="C88" s="60"/>
-      <c r="D88" s="60"/>
+      <c r="B88" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>106</v>
+      </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
-      <c r="G88" s="82" t="s">
-        <v>73</v>
-      </c>
-      <c r="H88" s="82" t="s">
-        <v>111</v>
-      </c>
-      <c r="I88" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="J88" s="82" t="s">
-        <v>112</v>
-      </c>
-      <c r="K88" s="60"/>
+      <c r="G88" s="76"/>
+      <c r="H88" s="76"/>
+      <c r="I88" s="76"/>
+      <c r="J88" s="76"/>
+      <c r="K88" s="76"/>
       <c r="L88" s="6"/>
       <c r="M88" s="6"/>
       <c r="N88" s="6"/>
@@ -5709,24 +5837,32 @@
       <c r="Y88" s="6"/>
       <c r="Z88" s="6"/>
     </row>
-    <row r="89" ht="16.5" customHeight="1">
+    <row r="89" ht="57.0" customHeight="1">
       <c r="A89" s="6"/>
-      <c r="B89" s="63" t="s">
-        <v>113</v>
-      </c>
+      <c r="B89" s="61"/>
       <c r="C89" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D89" s="12" t="s">
-        <v>106</v>
+        <v>65</v>
+      </c>
+      <c r="D89" s="55" t="s">
+        <v>115</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
-      <c r="G89" s="78"/>
-      <c r="H89" s="78"/>
-      <c r="I89" s="78"/>
-      <c r="J89" s="78"/>
-      <c r="K89" s="78"/>
+      <c r="G89" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="H89" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="I89" s="80" t="s">
+        <v>118</v>
+      </c>
+      <c r="J89" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="K89" s="83" t="s">
+        <v>120</v>
+      </c>
       <c r="L89" s="6"/>
       <c r="M89" s="6"/>
       <c r="N89" s="6"/>
@@ -5743,32 +5879,24 @@
       <c r="Y89" s="6"/>
       <c r="Z89" s="6"/>
     </row>
-    <row r="90" ht="57.0" customHeight="1">
+    <row r="90" ht="16.5" customHeight="1">
       <c r="A90" s="6"/>
-      <c r="B90" s="64"/>
+      <c r="B90" s="60" t="s">
+        <v>121</v>
+      </c>
       <c r="C90" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D90" s="52" t="s">
-        <v>114</v>
+        <v>65</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
-      <c r="G90" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="H90" s="84" t="s">
-        <v>116</v>
-      </c>
-      <c r="I90" s="82" t="s">
-        <v>117</v>
-      </c>
-      <c r="J90" s="82" t="s">
-        <v>118</v>
-      </c>
-      <c r="K90" s="84" t="s">
-        <v>119</v>
-      </c>
+      <c r="G90" s="56"/>
+      <c r="H90" s="56"/>
+      <c r="I90" s="56"/>
+      <c r="J90" s="56"/>
+      <c r="K90" s="56"/>
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
       <c r="N90" s="6"/>
@@ -5785,24 +5913,32 @@
       <c r="Y90" s="6"/>
       <c r="Z90" s="6"/>
     </row>
-    <row r="91" ht="16.5" customHeight="1">
+    <row r="91" ht="92.25" customHeight="1">
       <c r="A91" s="6"/>
-      <c r="B91" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="C91" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D91" s="12" t="s">
-        <v>106</v>
+      <c r="B91" s="77"/>
+      <c r="C91" s="84" t="s">
+        <v>107</v>
+      </c>
+      <c r="D91" s="85" t="s">
+        <v>122</v>
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
-      <c r="G91" s="53"/>
-      <c r="H91" s="53"/>
-      <c r="I91" s="53"/>
-      <c r="J91" s="53"/>
-      <c r="K91" s="53"/>
+      <c r="G91" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H91" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="I91" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J91" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="K91" s="79" t="s">
+        <v>127</v>
+      </c>
       <c r="L91" s="6"/>
       <c r="M91" s="6"/>
       <c r="N91" s="6"/>
@@ -5819,32 +5955,26 @@
       <c r="Y91" s="6"/>
       <c r="Z91" s="6"/>
     </row>
-    <row r="92" ht="92.25" customHeight="1">
+    <row r="92" ht="45.0" customHeight="1">
       <c r="A92" s="6"/>
-      <c r="B92" s="79"/>
-      <c r="C92" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="D92" s="85" t="s">
-        <v>121</v>
-      </c>
+      <c r="B92" s="61"/>
+      <c r="C92" s="82"/>
+      <c r="D92" s="82"/>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
       <c r="G92" s="12" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="H92" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="I92" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="J92" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="K92" s="81" t="s">
-        <v>126</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="I92" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="J92" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="K92" s="82"/>
       <c r="L92" s="6"/>
       <c r="M92" s="6"/>
       <c r="N92" s="6"/>
@@ -5861,26 +5991,24 @@
       <c r="Y92" s="6"/>
       <c r="Z92" s="6"/>
     </row>
-    <row r="93" ht="45.0" customHeight="1">
+    <row r="93" ht="16.5" customHeight="1">
       <c r="A93" s="6"/>
-      <c r="B93" s="64"/>
-      <c r="C93" s="60"/>
-      <c r="D93" s="60"/>
+      <c r="B93" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>106</v>
+      </c>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
-      <c r="G93" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="H93" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="I93" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="J93" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="K93" s="60"/>
+      <c r="G93" s="56"/>
+      <c r="H93" s="56"/>
+      <c r="I93" s="56"/>
+      <c r="J93" s="56"/>
+      <c r="K93" s="56"/>
       <c r="L93" s="6"/>
       <c r="M93" s="6"/>
       <c r="N93" s="6"/>
@@ -5897,24 +6025,30 @@
       <c r="Y93" s="6"/>
       <c r="Z93" s="6"/>
     </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c r="A94" s="6"/>
-      <c r="B94" s="61" t="s">
-        <v>130</v>
-      </c>
+    <row r="94" ht="38.25" customHeight="1">
+      <c r="A94" s="86"/>
+      <c r="B94" s="87"/>
       <c r="C94" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D94" s="12" t="s">
-        <v>106</v>
+        <v>65</v>
+      </c>
+      <c r="D94" s="55" t="s">
+        <v>132</v>
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
-      <c r="G94" s="53"/>
-      <c r="H94" s="53"/>
-      <c r="I94" s="53"/>
-      <c r="J94" s="53"/>
-      <c r="K94" s="53"/>
+      <c r="G94" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H94" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="I94" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="J94" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="K94" s="12"/>
       <c r="L94" s="6"/>
       <c r="M94" s="6"/>
       <c r="N94" s="6"/>
@@ -5931,30 +6065,24 @@
       <c r="Y94" s="6"/>
       <c r="Z94" s="6"/>
     </row>
-    <row r="95" ht="38.25" customHeight="1">
+    <row r="95" ht="59.25" customHeight="1">
       <c r="A95" s="86"/>
-      <c r="B95" s="87"/>
-      <c r="C95" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D95" s="52" t="s">
-        <v>131</v>
+      <c r="B95" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="C95" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="D95" s="88" t="s">
+        <v>137</v>
       </c>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
-      <c r="G95" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H95" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="I95" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="J95" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="K95" s="12"/>
+      <c r="G95" s="56"/>
+      <c r="H95" s="56"/>
+      <c r="I95" s="56"/>
+      <c r="J95" s="56"/>
+      <c r="K95" s="56"/>
       <c r="L95" s="6"/>
       <c r="M95" s="6"/>
       <c r="N95" s="6"/>
@@ -5973,22 +6101,22 @@
     </row>
     <row r="96" ht="59.25" customHeight="1">
       <c r="A96" s="86"/>
-      <c r="B96" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="C96" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="D96" s="88" t="s">
-        <v>136</v>
+      <c r="B96" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D96" s="52" t="s">
+        <v>139</v>
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
-      <c r="G96" s="53"/>
-      <c r="H96" s="53"/>
-      <c r="I96" s="53"/>
-      <c r="J96" s="53"/>
-      <c r="K96" s="53"/>
+      <c r="G96" s="56"/>
+      <c r="H96" s="56"/>
+      <c r="I96" s="56"/>
+      <c r="J96" s="56"/>
+      <c r="K96" s="56"/>
       <c r="L96" s="6"/>
       <c r="M96" s="6"/>
       <c r="N96" s="6"/>
@@ -6007,22 +6135,22 @@
     </row>
     <row r="97" ht="59.25" customHeight="1">
       <c r="A97" s="86"/>
-      <c r="B97" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D97" s="49" t="s">
-        <v>138</v>
+      <c r="B97" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C97" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="D97" s="88" t="s">
+        <v>141</v>
       </c>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
-      <c r="G97" s="53"/>
-      <c r="H97" s="53"/>
-      <c r="I97" s="53"/>
-      <c r="J97" s="53"/>
-      <c r="K97" s="53"/>
+      <c r="G97" s="56"/>
+      <c r="H97" s="56"/>
+      <c r="I97" s="56"/>
+      <c r="J97" s="56"/>
+      <c r="K97" s="56"/>
       <c r="L97" s="6"/>
       <c r="M97" s="6"/>
       <c r="N97" s="6"/>
@@ -6039,24 +6167,18 @@
       <c r="Y97" s="6"/>
       <c r="Z97" s="6"/>
     </row>
-    <row r="98" ht="59.25" customHeight="1">
-      <c r="A98" s="86"/>
-      <c r="B98" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="C98" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="D98" s="88" t="s">
-        <v>140</v>
-      </c>
+    <row r="98" ht="16.5" customHeight="1">
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
-      <c r="G98" s="53"/>
-      <c r="H98" s="53"/>
-      <c r="I98" s="53"/>
-      <c r="J98" s="53"/>
-      <c r="K98" s="53"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
       <c r="L98" s="6"/>
       <c r="M98" s="6"/>
       <c r="N98" s="6"/>
@@ -31749,62 +31871,26 @@
       <c r="Y1015" s="6"/>
       <c r="Z1015" s="6"/>
     </row>
-    <row r="1016" ht="16.5" customHeight="1">
-      <c r="A1016" s="6"/>
-      <c r="B1016" s="6"/>
-      <c r="C1016" s="6"/>
-      <c r="D1016" s="6"/>
-      <c r="E1016" s="6"/>
-      <c r="F1016" s="6"/>
-      <c r="G1016" s="6"/>
-      <c r="H1016" s="6"/>
-      <c r="I1016" s="6"/>
-      <c r="J1016" s="6"/>
-      <c r="K1016" s="6"/>
-      <c r="L1016" s="6"/>
-      <c r="M1016" s="6"/>
-      <c r="N1016" s="6"/>
-      <c r="O1016" s="6"/>
-      <c r="P1016" s="6"/>
-      <c r="Q1016" s="6"/>
-      <c r="R1016" s="6"/>
-      <c r="S1016" s="6"/>
-      <c r="T1016" s="6"/>
-      <c r="U1016" s="6"/>
-      <c r="V1016" s="6"/>
-      <c r="W1016" s="6"/>
-      <c r="X1016" s="6"/>
-      <c r="Y1016" s="6"/>
-      <c r="Z1016" s="6"/>
-    </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="K92:K93"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
+  <mergeCells count="18">
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E2:I2"/>
-    <mergeCell ref="B34:H37"/>
+    <mergeCell ref="B38:H41"/>
     <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
     <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="K64:K65"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I64:I65"/>
     <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="K86:K87"/>
+    <mergeCell ref="K91:K92"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -31896,7 +31982,7 @@
         <v>9</v>
       </c>
       <c r="L2" s="13">
-        <v>45322.0</v>
+        <v>45333.0</v>
       </c>
       <c r="M2" s="14" t="s">
         <v>9</v>
@@ -31918,7 +32004,7 @@
     <row r="3" ht="18.75" customHeight="1"/>
     <row r="4" ht="18.75" customHeight="1">
       <c r="B4" s="89" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
@@ -31926,22 +32012,22 @@
         <v>10</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D5" s="91" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E5" s="28"/>
     </row>
-    <row r="6" ht="41.25" customHeight="1">
+    <row r="6" ht="21.75" customHeight="1">
       <c r="B6" s="16">
         <v>1.0</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="46" t="s">
-        <v>142</v>
+        <v>42</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>43</v>
       </c>
       <c r="E6" s="28"/>
     </row>
@@ -31950,9 +32036,9 @@
         <v>2.0</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="53" t="s">
         <v>143</v>
       </c>
       <c r="E7" s="28"/>
@@ -31961,11 +32047,11 @@
       <c r="B8" s="16">
         <v>3.0</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>42</v>
+      <c r="C8" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>47</v>
       </c>
       <c r="E8" s="28"/>
     </row>
@@ -31973,11 +32059,11 @@
       <c r="B9" s="92">
         <v>4.0</v>
       </c>
-      <c r="C9" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>44</v>
+      <c r="C9" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>49</v>
       </c>
       <c r="E9" s="28"/>
     </row>
@@ -31985,11 +32071,11 @@
       <c r="B10" s="19">
         <v>5.0</v>
       </c>
-      <c r="C10" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>46</v>
+      <c r="C10" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>51</v>
       </c>
       <c r="E10" s="28"/>
     </row>
@@ -31997,11 +32083,11 @@
       <c r="B11" s="93">
         <v>6.0</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>48</v>
+      <c r="C11" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>53</v>
       </c>
       <c r="E11" s="28"/>
     </row>
@@ -32009,299 +32095,519 @@
       <c r="B12" s="19">
         <v>7.0</v>
       </c>
-      <c r="C12" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>50</v>
+      <c r="C12" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>55</v>
       </c>
       <c r="E12" s="28"/>
     </row>
-    <row r="13" ht="52.5" customHeight="1">
-      <c r="B13" s="19">
-        <v>8.0</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="28"/>
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="B13" s="89"/>
     </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="B14" s="89"/>
-    </row>
-    <row r="15" ht="18.75" customHeight="1">
-      <c r="B15" s="89" t="s">
+      <c r="B14" s="89" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="16" ht="18.75" customHeight="1"/>
+    <row r="15" ht="18.75" customHeight="1"/>
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="B16" s="89" t="s">
+        <v>147</v>
+      </c>
+    </row>
     <row r="17" ht="18.75" customHeight="1">
       <c r="B17" s="89" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" ht="18.75" customHeight="1">
       <c r="B18" s="89" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" ht="18.75" customHeight="1">
       <c r="B19" s="89" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" ht="18.75" customHeight="1">
-      <c r="B20" s="89" t="s">
-        <v>150</v>
-      </c>
+      <c r="A20" s="94"/>
+      <c r="B20" s="95" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="96"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="94"/>
+      <c r="T20" s="94"/>
+      <c r="U20" s="94"/>
+      <c r="V20" s="94"/>
+      <c r="W20" s="94"/>
+      <c r="X20" s="94"/>
+      <c r="Y20" s="94"/>
+      <c r="Z20" s="94"/>
     </row>
     <row r="21" ht="18.75" customHeight="1">
-      <c r="B21" s="94" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="95"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="97" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="94"/>
+      <c r="S21" s="94"/>
+      <c r="T21" s="94"/>
+      <c r="U21" s="94"/>
+      <c r="V21" s="94"/>
+      <c r="W21" s="94"/>
+      <c r="X21" s="94"/>
+      <c r="Y21" s="94"/>
+      <c r="Z21" s="94"/>
     </row>
     <row r="22" ht="18.75" customHeight="1">
-      <c r="C22" s="96" t="s">
-        <v>152</v>
-      </c>
+      <c r="A22" s="94"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="98" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" s="94"/>
+      <c r="E22" s="97" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="94"/>
+      <c r="S22" s="94"/>
+      <c r="T22" s="94"/>
+      <c r="U22" s="94"/>
+      <c r="V22" s="94"/>
+      <c r="W22" s="94"/>
+      <c r="X22" s="94"/>
+      <c r="Y22" s="94"/>
+      <c r="Z22" s="94"/>
     </row>
     <row r="23" ht="18.75" customHeight="1">
-      <c r="C23" s="97" t="s">
-        <v>153</v>
-      </c>
-      <c r="E23" s="96" t="s">
-        <v>154</v>
-      </c>
+      <c r="A23" s="94"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="98" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="94"/>
+      <c r="E23" s="97" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="94"/>
+      <c r="O23" s="94"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="94"/>
+      <c r="S23" s="94"/>
+      <c r="T23" s="94"/>
+      <c r="U23" s="94"/>
+      <c r="V23" s="94"/>
+      <c r="W23" s="94"/>
+      <c r="X23" s="94"/>
+      <c r="Y23" s="94"/>
+      <c r="Z23" s="94"/>
     </row>
     <row r="24" ht="18.75" customHeight="1">
-      <c r="C24" s="97" t="s">
-        <v>155</v>
-      </c>
-      <c r="E24" s="96" t="s">
+      <c r="A24" s="94"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="98" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="94"/>
+      <c r="E24" s="97" t="s">
         <v>156</v>
       </c>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="94"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="94"/>
+      <c r="O24" s="94"/>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="94"/>
+      <c r="R24" s="94"/>
+      <c r="S24" s="94"/>
+      <c r="T24" s="94"/>
+      <c r="U24" s="94"/>
+      <c r="V24" s="94"/>
+      <c r="W24" s="94"/>
+      <c r="X24" s="94"/>
+      <c r="Y24" s="94"/>
+      <c r="Z24" s="94"/>
     </row>
     <row r="25" ht="18.75" customHeight="1">
-      <c r="C25" s="97" t="s">
-        <v>157</v>
-      </c>
-      <c r="E25" s="96" t="s">
-        <v>156</v>
-      </c>
+      <c r="A25" s="94"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="98" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" s="94"/>
+      <c r="E25" s="97" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="94"/>
+      <c r="N25" s="94"/>
+      <c r="O25" s="94"/>
+      <c r="P25" s="94"/>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="94"/>
+      <c r="S25" s="94"/>
+      <c r="T25" s="94"/>
+      <c r="U25" s="94"/>
+      <c r="V25" s="94"/>
+      <c r="W25" s="94"/>
+      <c r="X25" s="94"/>
+      <c r="Y25" s="94"/>
+      <c r="Z25" s="94"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
-      <c r="C26" s="97" t="s">
-        <v>158</v>
-      </c>
-      <c r="E26" s="96" t="s">
-        <v>159</v>
-      </c>
+      <c r="A26" s="94"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="98" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="94"/>
+      <c r="E26" s="97" t="s">
+        <v>161</v>
+      </c>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="94"/>
+      <c r="M26" s="94"/>
+      <c r="N26" s="94"/>
+      <c r="O26" s="94"/>
+      <c r="P26" s="94"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="94"/>
+      <c r="S26" s="94"/>
+      <c r="T26" s="94"/>
+      <c r="U26" s="94"/>
+      <c r="V26" s="94"/>
+      <c r="W26" s="94"/>
+      <c r="X26" s="94"/>
+      <c r="Y26" s="94"/>
+      <c r="Z26" s="94"/>
     </row>
     <row r="27" ht="18.75" customHeight="1">
-      <c r="C27" s="97" t="s">
-        <v>160</v>
-      </c>
-      <c r="E27" s="96" t="s">
-        <v>161</v>
-      </c>
+      <c r="A27" s="94"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="98" t="s">
+        <v>162</v>
+      </c>
+      <c r="D27" s="94"/>
+      <c r="E27" s="97" t="s">
+        <v>163</v>
+      </c>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="94"/>
+      <c r="O27" s="94"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="94"/>
+      <c r="R27" s="94"/>
+      <c r="S27" s="94"/>
+      <c r="T27" s="94"/>
+      <c r="U27" s="94"/>
+      <c r="V27" s="94"/>
+      <c r="W27" s="94"/>
+      <c r="X27" s="94"/>
+      <c r="Y27" s="94"/>
+      <c r="Z27" s="94"/>
     </row>
     <row r="28" ht="18.75" customHeight="1">
+      <c r="A28" s="94"/>
+      <c r="B28" s="94"/>
       <c r="C28" s="97" t="s">
-        <v>162</v>
-      </c>
-      <c r="E28" s="96" t="s">
-        <v>163</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="94"/>
+      <c r="O28" s="94"/>
+      <c r="P28" s="94"/>
+      <c r="Q28" s="94"/>
+      <c r="R28" s="94"/>
+      <c r="S28" s="94"/>
+      <c r="T28" s="94"/>
+      <c r="U28" s="94"/>
+      <c r="V28" s="94"/>
+      <c r="W28" s="94"/>
+      <c r="X28" s="94"/>
+      <c r="Y28" s="94"/>
+      <c r="Z28" s="94"/>
     </row>
     <row r="29" ht="18.75" customHeight="1">
-      <c r="C29" s="96" t="s">
-        <v>164</v>
-      </c>
+      <c r="A29" s="94"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="97" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="94"/>
+      <c r="L29" s="94"/>
+      <c r="M29" s="94"/>
+      <c r="N29" s="94"/>
+      <c r="O29" s="94"/>
+      <c r="P29" s="94"/>
+      <c r="Q29" s="94"/>
+      <c r="R29" s="94"/>
+      <c r="S29" s="94"/>
+      <c r="T29" s="94"/>
+      <c r="U29" s="94"/>
+      <c r="V29" s="94"/>
+      <c r="W29" s="94"/>
+      <c r="X29" s="94"/>
+      <c r="Y29" s="94"/>
+      <c r="Z29" s="94"/>
     </row>
     <row r="30" ht="18.75" customHeight="1">
-      <c r="C30" s="96" t="s">
-        <v>165</v>
-      </c>
+      <c r="B30" s="89"/>
     </row>
     <row r="31" ht="18.75" customHeight="1">
-      <c r="B31" s="89"/>
+      <c r="B31" s="89" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="32" ht="18.75" customHeight="1">
       <c r="B32" s="89" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" ht="18.75" customHeight="1">
-      <c r="B33" s="89" t="s">
-        <v>167</v>
+      <c r="C33" s="99" t="s">
+        <v>168</v>
+      </c>
+      <c r="E33" s="100" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="34" ht="18.75" customHeight="1">
-      <c r="C34" s="97" t="s">
-        <v>168</v>
-      </c>
-      <c r="E34" s="96" t="s">
-        <v>169</v>
+      <c r="C34" s="99" t="s">
+        <v>155</v>
+      </c>
+      <c r="E34" s="100" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="35" ht="18.75" customHeight="1">
-      <c r="C35" s="97" t="s">
-        <v>155</v>
-      </c>
-      <c r="E35" s="96" t="s">
+      <c r="C35" s="99" t="s">
+        <v>157</v>
+      </c>
+      <c r="E35" s="100" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="36" ht="18.75" customHeight="1">
-      <c r="C36" s="97" t="s">
-        <v>157</v>
-      </c>
-      <c r="E36" s="96" t="s">
-        <v>156</v>
+      <c r="C36" s="99" t="s">
+        <v>158</v>
+      </c>
+      <c r="E36" s="100" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="37" ht="18.75" customHeight="1">
-      <c r="C37" s="97" t="s">
-        <v>158</v>
-      </c>
-      <c r="E37" s="96" t="s">
-        <v>159</v>
+      <c r="C37" s="99" t="s">
+        <v>160</v>
+      </c>
+      <c r="E37" s="100" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="38" ht="18.75" customHeight="1">
-      <c r="C38" s="97" t="s">
-        <v>160</v>
-      </c>
-      <c r="E38" s="96" t="s">
-        <v>161</v>
+      <c r="C38" s="99" t="s">
+        <v>162</v>
+      </c>
+      <c r="E38" s="100" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="39" ht="18.75" customHeight="1">
-      <c r="C39" s="97" t="s">
-        <v>162</v>
-      </c>
-      <c r="E39" s="96" t="s">
-        <v>163</v>
+      <c r="C39" s="100" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="40" ht="18.75" customHeight="1">
-      <c r="C40" s="96" t="s">
-        <v>164</v>
+      <c r="C40" s="100" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="41" ht="18.75" customHeight="1">
-      <c r="C41" s="96" t="s">
-        <v>165</v>
-      </c>
+      <c r="C41" s="101"/>
     </row>
     <row r="42" ht="18.75" customHeight="1">
-      <c r="C42" s="98"/>
-    </row>
-    <row r="43" ht="18.75" customHeight="1">
-      <c r="B43" s="98" t="s">
+      <c r="B42" s="101" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="44" ht="18.75" customHeight="1"/>
-    <row r="45" ht="18.75" customHeight="1">
-      <c r="B45" s="94" t="s">
+    <row r="43" ht="18.75" customHeight="1"/>
+    <row r="44" ht="18.75" customHeight="1">
+      <c r="B44" s="102" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="46" ht="18.75" customHeight="1"/>
-    <row r="47" ht="18.75" customHeight="1">
-      <c r="B47" s="99" t="s">
+    <row r="45" ht="18.75" customHeight="1"/>
+    <row r="46" ht="18.75" customHeight="1">
+      <c r="B46" s="95" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="48" ht="18.75" customHeight="1"/>
-    <row r="49" ht="18.75" customHeight="1">
-      <c r="B49" s="89" t="s">
+    <row r="47" ht="18.75" customHeight="1"/>
+    <row r="48" ht="18.75" customHeight="1">
+      <c r="B48" s="89" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="50" ht="18.75" customHeight="1"/>
+    <row r="49" ht="18.75" customHeight="1"/>
+    <row r="50" ht="18.75" customHeight="1">
+      <c r="B50" s="101" t="s">
+        <v>174</v>
+      </c>
+    </row>
     <row r="51" ht="18.75" customHeight="1">
-      <c r="B51" s="89" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="52" ht="18.75" customHeight="1">
-      <c r="B52" s="98" t="s">
+      <c r="B51" s="101" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="53" ht="18.75" customHeight="1"/>
+    <row r="52" ht="18.75" customHeight="1"/>
+    <row r="53" ht="18.75" customHeight="1">
+      <c r="B53" s="102" t="s">
+        <v>176</v>
+      </c>
+    </row>
     <row r="54" ht="18.75" customHeight="1">
-      <c r="B54" s="94" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="55" ht="18.75" customHeight="1">
-      <c r="B55" s="94" t="s">
+      <c r="B54" s="102" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="56" ht="18.75" customHeight="1"/>
+    <row r="55" ht="18.75" customHeight="1"/>
+    <row r="56" ht="18.75" customHeight="1">
+      <c r="B56" s="102" t="s">
+        <v>178</v>
+      </c>
+      <c r="C56" s="103"/>
+      <c r="D56" s="103"/>
+    </row>
     <row r="57" ht="18.75" customHeight="1">
-      <c r="B57" s="94" t="s">
-        <v>178</v>
-      </c>
-      <c r="C57" s="95"/>
-      <c r="D57" s="95"/>
-    </row>
-    <row r="58" ht="18.75" customHeight="1">
-      <c r="B58" s="94" t="s">
+      <c r="B57" s="102" t="s">
         <v>179</v>
       </c>
-      <c r="C58" s="95"/>
-      <c r="D58" s="95"/>
-    </row>
-    <row r="59" ht="18.75" customHeight="1"/>
+      <c r="C57" s="103"/>
+      <c r="D57" s="103"/>
+    </row>
+    <row r="58" ht="18.75" customHeight="1"/>
+    <row r="59" ht="18.75" customHeight="1">
+      <c r="B59" s="101" t="s">
+        <v>180</v>
+      </c>
+    </row>
     <row r="60" ht="18.75" customHeight="1">
-      <c r="B60" s="98" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="61" ht="18.75" customHeight="1">
-      <c r="B61" s="98" t="s">
+      <c r="B60" s="101" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="62" ht="18.75" customHeight="1"/>
+    <row r="61" ht="18.75" customHeight="1"/>
+    <row r="62" ht="18.75" customHeight="1">
+      <c r="B62" s="102" t="s">
+        <v>182</v>
+      </c>
+      <c r="C62" s="103"/>
+      <c r="D62" s="103"/>
+    </row>
     <row r="63" ht="18.75" customHeight="1">
-      <c r="B63" s="94" t="s">
-        <v>182</v>
-      </c>
-      <c r="C63" s="95"/>
-      <c r="D63" s="95"/>
-    </row>
-    <row r="64" ht="18.75" customHeight="1">
-      <c r="B64" s="94" t="s">
+      <c r="B63" s="102" t="s">
         <v>183</v>
       </c>
-      <c r="C64" s="95"/>
-      <c r="D64" s="95"/>
-    </row>
+      <c r="C63" s="103"/>
+      <c r="D63" s="103"/>
+    </row>
+    <row r="64" ht="18.75" customHeight="1"/>
     <row r="65" ht="18.75" customHeight="1"/>
-    <row r="66" ht="18.75" customHeight="1">
-      <c r="B66" s="94" t="s">
-        <v>184</v>
-      </c>
-      <c r="C66" s="95"/>
-      <c r="D66" s="95"/>
-    </row>
-    <row r="67" ht="18.75" customHeight="1">
-      <c r="B67" s="94" t="s">
-        <v>185</v>
-      </c>
-      <c r="C67" s="95"/>
-      <c r="D67" s="95"/>
-    </row>
+    <row r="66" ht="18.75" customHeight="1"/>
+    <row r="67" ht="18.75" customHeight="1"/>
     <row r="68" ht="18.75" customHeight="1"/>
     <row r="69" ht="18.75" customHeight="1"/>
     <row r="70" ht="18.75" customHeight="1"/>
@@ -33244,18 +33550,12 @@
     <row r="1007" ht="18.75" customHeight="1"/>
     <row r="1008" ht="18.75" customHeight="1"/>
     <row r="1009" ht="18.75" customHeight="1"/>
-    <row r="1010" ht="18.75" customHeight="1"/>
-    <row r="1011" ht="18.75" customHeight="1"/>
-    <row r="1012" ht="18.75" customHeight="1"/>
-    <row r="1013" ht="18.75" customHeight="1"/>
-    <row r="1014" ht="18.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="11">
     <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D10:E10"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E2:I2"/>
